--- a/NN_results/F_NN_results.xlsx
+++ b/NN_results/F_NN_results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C348"/>
+  <dimension ref="A1:C394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9.06199836730957</v>
+        <v>5.096431732177734</v>
       </c>
       <c r="C2" t="n">
-        <v>8.960000038146973</v>
+        <v>5.119999408721924</v>
       </c>
     </row>
     <row r="3">
@@ -462,10 +462,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.027952194213867</v>
+        <v>5.130393981933594</v>
       </c>
       <c r="C3" t="n">
-        <v>9.029999732971191</v>
+        <v>4.980000019073486</v>
       </c>
     </row>
     <row r="4">
@@ -473,10 +473,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.06245231628418</v>
+        <v>5.055545806884766</v>
       </c>
       <c r="C4" t="n">
-        <v>8.960000038146973</v>
+        <v>4.71999979019165</v>
       </c>
     </row>
     <row r="5">
@@ -484,10 +484,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.067686080932617</v>
+        <v>4.876525402069092</v>
       </c>
       <c r="C5" t="n">
-        <v>9.039999961853027</v>
+        <v>4.889999866485596</v>
       </c>
     </row>
     <row r="6">
@@ -495,10 +495,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9.095839500427246</v>
+        <v>4.883345127105713</v>
       </c>
       <c r="C6" t="n">
-        <v>9.039999961853027</v>
+        <v>4.899999618530273</v>
       </c>
     </row>
     <row r="7">
@@ -506,10 +506,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9.115887641906738</v>
+        <v>4.907543659210205</v>
       </c>
       <c r="C7" t="n">
-        <v>8.770000457763672</v>
+        <v>5.309999465942383</v>
       </c>
     </row>
     <row r="8">
@@ -517,10 +517,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.013145446777344</v>
+        <v>5.139066696166992</v>
       </c>
       <c r="C8" t="n">
-        <v>8.819999694824219</v>
+        <v>5.300000190734863</v>
       </c>
     </row>
     <row r="9">
@@ -528,10 +528,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8.952854156494141</v>
+        <v>5.249117374420166</v>
       </c>
       <c r="C9" t="n">
-        <v>8.760000228881836</v>
+        <v>5.489999294281006</v>
       </c>
     </row>
     <row r="10">
@@ -539,10 +539,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8.906486511230469</v>
+        <v>5.387865543365479</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>5.630000114440918</v>
       </c>
     </row>
     <row r="11">
@@ -550,10 +550,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8.97893238067627</v>
+        <v>5.524920463562012</v>
       </c>
       <c r="C11" t="n">
-        <v>9.119999885559082</v>
+        <v>5.650000095367432</v>
       </c>
     </row>
     <row r="12">
@@ -561,10 +561,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9.096402168273926</v>
+        <v>5.592355728149414</v>
       </c>
       <c r="C12" t="n">
-        <v>9.170000076293945</v>
+        <v>5.839999675750732</v>
       </c>
     </row>
     <row r="13">
@@ -572,10 +572,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9.191750526428223</v>
+        <v>5.719220161437988</v>
       </c>
       <c r="C13" t="n">
-        <v>9.100000381469727</v>
+        <v>6.03000020980835</v>
       </c>
     </row>
     <row r="14">
@@ -583,10 +583,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9.206011772155762</v>
+        <v>5.882896900177002</v>
       </c>
       <c r="C14" t="n">
-        <v>9.199999809265137</v>
+        <v>5.849999904632568</v>
       </c>
     </row>
     <row r="15">
@@ -594,10 +594,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9.237546920776367</v>
+        <v>5.852205753326416</v>
       </c>
       <c r="C15" t="n">
-        <v>9.340000152587891</v>
+        <v>5.709999561309814</v>
       </c>
     </row>
     <row r="16">
@@ -605,10 +605,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9.319520950317383</v>
+        <v>5.744295597076416</v>
       </c>
       <c r="C16" t="n">
-        <v>9.340000152587891</v>
+        <v>5.869999885559082</v>
       </c>
     </row>
     <row r="17">
@@ -616,10 +616,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9.373841285705566</v>
+        <v>5.782380104064941</v>
       </c>
       <c r="C17" t="n">
-        <v>9.539999961853027</v>
+        <v>5.899999618530273</v>
       </c>
     </row>
     <row r="18">
@@ -627,10 +627,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9.485837936401367</v>
+        <v>5.827533721923828</v>
       </c>
       <c r="C18" t="n">
-        <v>9.420000076293945</v>
+        <v>6.189999580383301</v>
       </c>
     </row>
     <row r="19">
@@ -638,10 +638,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9.499642372131348</v>
+        <v>6.009283542633057</v>
       </c>
       <c r="C19" t="n">
-        <v>9.420000076293945</v>
+        <v>6.570000171661377</v>
       </c>
     </row>
     <row r="20">
@@ -649,10 +649,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9.484607696533203</v>
+        <v>6.312516212463379</v>
       </c>
       <c r="C20" t="n">
-        <v>9.409999847412109</v>
+        <v>7.340000152587891</v>
       </c>
     </row>
     <row r="21">
@@ -660,10 +660,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9.466914176940918</v>
+        <v>6.895394802093506</v>
       </c>
       <c r="C21" t="n">
-        <v>9.449999809265137</v>
+        <v>7.53000020980835</v>
       </c>
     </row>
     <row r="22">
@@ -671,10 +671,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9.476585388183594</v>
+        <v>7.27190637588501</v>
       </c>
       <c r="C22" t="n">
-        <v>9.300000190734863</v>
+        <v>7.239999294281006</v>
       </c>
     </row>
     <row r="23">
@@ -682,10 +682,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9.418333053588867</v>
+        <v>7.229546546936035</v>
       </c>
       <c r="C23" t="n">
-        <v>9.279999732971191</v>
+        <v>6.809999942779541</v>
       </c>
     </row>
     <row r="24">
@@ -693,10 +693,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9.366637229919434</v>
+        <v>6.921593189239502</v>
       </c>
       <c r="C24" t="n">
-        <v>9.25</v>
+        <v>6.130000114440918</v>
       </c>
     </row>
     <row r="25">
@@ -704,10 +704,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9.329039573669434</v>
+        <v>6.384042739868164</v>
       </c>
       <c r="C25" t="n">
-        <v>9.100000381469727</v>
+        <v>6.460000038146973</v>
       </c>
     </row>
     <row r="26">
@@ -715,10 +715,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9.247244834899902</v>
+        <v>6.337546825408936</v>
       </c>
       <c r="C26" t="n">
-        <v>9.170000076293945</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="27">
@@ -726,10 +726,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9.226998329162598</v>
+        <v>6.385337829589844</v>
       </c>
       <c r="C27" t="n">
-        <v>9.159999847412109</v>
+        <v>6.550000190734863</v>
       </c>
     </row>
     <row r="28">
@@ -737,10 +737,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9.225461006164551</v>
+        <v>6.440814971923828</v>
       </c>
       <c r="C28" t="n">
-        <v>9.109999656677246</v>
+        <v>6.329999923706055</v>
       </c>
     </row>
     <row r="29">
@@ -748,10 +748,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9.207125663757324</v>
+        <v>6.337716102600098</v>
       </c>
       <c r="C29" t="n">
-        <v>9.199999809265137</v>
+        <v>6.329999923706055</v>
       </c>
     </row>
     <row r="30">
@@ -759,10 +759,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9.232325553894043</v>
+        <v>6.282136917114258</v>
       </c>
       <c r="C30" t="n">
-        <v>9.140000343322754</v>
+        <v>6.229999542236328</v>
       </c>
     </row>
     <row r="31">
@@ -770,10 +770,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9.229143142700195</v>
+        <v>6.20720911026001</v>
       </c>
       <c r="C31" t="n">
-        <v>9.079999923706055</v>
+        <v>6.28000020980835</v>
       </c>
     </row>
     <row r="32">
@@ -781,10 +781,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9.195216178894043</v>
+        <v>6.203395843505859</v>
       </c>
       <c r="C32" t="n">
-        <v>9.159999847412109</v>
+        <v>6.150000095367432</v>
       </c>
     </row>
     <row r="33">
@@ -792,10 +792,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9.205199241638184</v>
+        <v>6.134426593780518</v>
       </c>
       <c r="C33" t="n">
-        <v>8.899999618530273</v>
+        <v>5.949999332427979</v>
       </c>
     </row>
     <row r="34">
@@ -803,10 +803,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9.109938621520996</v>
+        <v>5.987728595733643</v>
       </c>
       <c r="C34" t="n">
-        <v>8.610000610351562</v>
+        <v>6.03000020980835</v>
       </c>
     </row>
     <row r="35">
@@ -814,10 +814,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>8.921030044555664</v>
+        <v>5.96633768081665</v>
       </c>
       <c r="C35" t="n">
-        <v>8.710000038146973</v>
+        <v>5.909999847412109</v>
       </c>
     </row>
     <row r="36">
@@ -825,10 +825,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>8.842388153076172</v>
+        <v>5.901463508605957</v>
       </c>
       <c r="C36" t="n">
-        <v>8.739999771118164</v>
+        <v>6.009999752044678</v>
       </c>
     </row>
     <row r="37">
@@ -836,10 +836,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>8.834480285644531</v>
+        <v>5.927102565765381</v>
       </c>
       <c r="C37" t="n">
-        <v>8.680001258850098</v>
+        <v>6.079999446868896</v>
       </c>
     </row>
     <row r="38">
@@ -847,10 +847,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>8.823526382446289</v>
+        <v>5.985199928283691</v>
       </c>
       <c r="C38" t="n">
-        <v>8.539999961853027</v>
+        <v>5.980000019073486</v>
       </c>
     </row>
     <row r="39">
@@ -858,10 +858,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>8.763450622558594</v>
+        <v>5.955584049224854</v>
       </c>
       <c r="C39" t="n">
-        <v>8.560000419616699</v>
+        <v>6.050000190734863</v>
       </c>
     </row>
     <row r="40">
@@ -869,10 +869,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>8.725735664367676</v>
+        <v>5.975184917449951</v>
       </c>
       <c r="C40" t="n">
-        <v>8.619999885559082</v>
+        <v>6.189999580383301</v>
       </c>
     </row>
     <row r="41">
@@ -880,10 +880,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>8.731720924377441</v>
+        <v>6.066738128662109</v>
       </c>
       <c r="C41" t="n">
-        <v>8.779999732971191</v>
+        <v>6.119999408721924</v>
       </c>
     </row>
     <row r="42">
@@ -891,10 +891,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>8.805184364318848</v>
+        <v>6.070969104766846</v>
       </c>
       <c r="C42" t="n">
-        <v>8.819999694824219</v>
+        <v>6.090000152587891</v>
       </c>
     </row>
     <row r="43">
@@ -902,10 +902,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>8.879205703735352</v>
+        <v>6.04796314239502</v>
       </c>
       <c r="C43" t="n">
-        <v>9.069999694824219</v>
+        <v>5.839999675750732</v>
       </c>
     </row>
     <row r="44">
@@ -913,10 +913,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9.018831253051758</v>
+        <v>5.89574670791626</v>
       </c>
       <c r="C44" t="n">
-        <v>9.069999694824219</v>
+        <v>6.09999942779541</v>
       </c>
     </row>
     <row r="45">
@@ -924,10 +924,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9.112950325012207</v>
+        <v>5.96812629699707</v>
       </c>
       <c r="C45" t="n">
-        <v>9.109999656677246</v>
+        <v>6.059999465942383</v>
       </c>
     </row>
     <row r="46">
@@ -935,10 +935,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9.168274879455566</v>
+        <v>5.995406627655029</v>
       </c>
       <c r="C46" t="n">
-        <v>9.289999961853027</v>
+        <v>6.359999656677246</v>
       </c>
     </row>
     <row r="47">
@@ -946,10 +946,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9.26554012298584</v>
+        <v>6.172056674957275</v>
       </c>
       <c r="C47" t="n">
-        <v>9.029999732971191</v>
+        <v>6.739999771118164</v>
       </c>
     </row>
     <row r="48">
@@ -957,10 +957,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9.213702201843262</v>
+        <v>6.475929737091064</v>
       </c>
       <c r="C48" t="n">
-        <v>9.069999694824219</v>
+        <v>6.860000133514404</v>
       </c>
     </row>
     <row r="49">
@@ -968,10 +968,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9.17162036895752</v>
+        <v>6.681074619293213</v>
       </c>
       <c r="C49" t="n">
-        <v>9.210000038146973</v>
+        <v>6.799999713897705</v>
       </c>
     </row>
     <row r="50">
@@ -979,10 +979,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9.212249755859375</v>
+        <v>6.719887256622314</v>
       </c>
       <c r="C50" t="n">
-        <v>8.600000381469727</v>
+        <v>6.659999847412109</v>
       </c>
     </row>
     <row r="51">
@@ -990,10 +990,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>8.99610710144043</v>
+        <v>6.639315128326416</v>
       </c>
       <c r="C51" t="n">
-        <v>8.720000267028809</v>
+        <v>6.679999828338623</v>
       </c>
     </row>
     <row r="52">
@@ -1001,10 +1001,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>8.881195068359375</v>
+        <v>6.608064651489258</v>
       </c>
       <c r="C52" t="n">
-        <v>8.610000610351562</v>
+        <v>6.839999675750732</v>
       </c>
     </row>
     <row r="53">
@@ -1012,10 +1012,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>8.798169136047363</v>
+        <v>6.692707538604736</v>
       </c>
       <c r="C53" t="n">
-        <v>8.640000343322754</v>
+        <v>6.980000019073486</v>
       </c>
     </row>
     <row r="54">
@@ -1023,10 +1023,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>8.770865440368652</v>
+        <v>6.818726062774658</v>
       </c>
       <c r="C54" t="n">
-        <v>8.539999961853027</v>
+        <v>6.880000114440918</v>
       </c>
     </row>
     <row r="55">
@@ -1034,10 +1034,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>8.731073379516602</v>
+        <v>6.814332008361816</v>
       </c>
       <c r="C55" t="n">
-        <v>8.590000152587891</v>
+        <v>6.929999351501465</v>
       </c>
     </row>
     <row r="56">
@@ -1045,10 +1045,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>8.723577499389648</v>
+        <v>6.829906463623047</v>
       </c>
       <c r="C56" t="n">
-        <v>8.890000343322754</v>
+        <v>7.010000228881836</v>
       </c>
     </row>
     <row r="57">
@@ -1056,10 +1056,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>8.838601112365723</v>
+        <v>6.885063648223877</v>
       </c>
       <c r="C57" t="n">
-        <v>9</v>
+        <v>6.920000076293945</v>
       </c>
     </row>
     <row r="58">
@@ -1067,10 +1067,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>8.979039192199707</v>
+        <v>6.857829570770264</v>
       </c>
       <c r="C58" t="n">
-        <v>9.020000457763672</v>
+        <v>6.739999771118164</v>
       </c>
     </row>
     <row r="59">
@@ -1078,10 +1078,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9.071074485778809</v>
+        <v>6.734238147735596</v>
       </c>
       <c r="C59" t="n">
-        <v>8.920000076293945</v>
+        <v>6.610000133514404</v>
       </c>
     </row>
     <row r="60">
@@ -1089,10 +1089,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9.066723823547363</v>
+        <v>6.600892543792725</v>
       </c>
       <c r="C60" t="n">
-        <v>8.890000343322754</v>
+        <v>6.689999580383301</v>
       </c>
     </row>
     <row r="61">
@@ -1100,10 +1100,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9.029959678649902</v>
+        <v>6.592773914337158</v>
       </c>
       <c r="C61" t="n">
-        <v>9.039999961853027</v>
+        <v>6.860000133514404</v>
       </c>
     </row>
     <row r="62">
@@ -1111,10 +1111,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9.065072059631348</v>
+        <v>6.699284076690674</v>
       </c>
       <c r="C62" t="n">
-        <v>9.079999923706055</v>
+        <v>6.960000038146973</v>
       </c>
     </row>
     <row r="63">
@@ -1122,10 +1122,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9.117733955383301</v>
+        <v>6.810784339904785</v>
       </c>
       <c r="C63" t="n">
-        <v>9.039999961853027</v>
+        <v>6.929999351501465</v>
       </c>
     </row>
     <row r="64">
@@ -1133,10 +1133,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9.133125305175781</v>
+        <v>6.838404655456543</v>
       </c>
       <c r="C64" t="n">
-        <v>8.810000419616699</v>
+        <v>6.860000133514404</v>
       </c>
     </row>
     <row r="65">
@@ -1144,10 +1144,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9.037054061889648</v>
+        <v>6.801070690155029</v>
       </c>
       <c r="C65" t="n">
-        <v>8.789999961853027</v>
+        <v>7.090000152587891</v>
       </c>
     </row>
     <row r="66">
@@ -1155,10 +1155,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>8.955013275146484</v>
+        <v>6.915071487426758</v>
       </c>
       <c r="C66" t="n">
-        <v>8.949999809265137</v>
+        <v>7.230000019073486</v>
       </c>
     </row>
     <row r="67">
@@ -1166,10 +1166,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>8.978121757507324</v>
+        <v>7.057308197021484</v>
       </c>
       <c r="C67" t="n">
-        <v>8.949999809265137</v>
+        <v>7.110000133514404</v>
       </c>
     </row>
     <row r="68">
@@ -1177,10 +1177,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9.01522159576416</v>
+        <v>7.0455002784729</v>
       </c>
       <c r="C68" t="n">
-        <v>8.899999618530273</v>
+        <v>7.03000020980835</v>
       </c>
     </row>
     <row r="69">
@@ -1188,10 +1188,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9.017971992492676</v>
+        <v>6.979681968688965</v>
       </c>
       <c r="C69" t="n">
-        <v>8.729999542236328</v>
+        <v>7.039999485015869</v>
       </c>
     </row>
     <row r="70">
@@ -1199,10 +1199,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>8.942931175231934</v>
+        <v>6.954833030700684</v>
       </c>
       <c r="C70" t="n">
-        <v>8.710000038146973</v>
+        <v>6.980000019073486</v>
       </c>
     </row>
     <row r="71">
@@ -1210,10 +1210,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>8.877809524536133</v>
+        <v>6.913374900817871</v>
       </c>
       <c r="C71" t="n">
-        <v>8.890000343322754</v>
+        <v>6.889999389648438</v>
       </c>
     </row>
     <row r="72">
@@ -1221,10 +1221,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>8.914667129516602</v>
+        <v>6.842357158660889</v>
       </c>
       <c r="C72" t="n">
-        <v>9</v>
+        <v>6.869999885559082</v>
       </c>
     </row>
     <row r="73">
@@ -1232,10 +1232,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9.003114700317383</v>
+        <v>6.799583911895752</v>
       </c>
       <c r="C73" t="n">
-        <v>9.010000228881836</v>
+        <v>6.839999675750732</v>
       </c>
     </row>
     <row r="74">
@@ -1243,10 +1243,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9.068141937255859</v>
+        <v>6.76750659942627</v>
       </c>
       <c r="C74" t="n">
-        <v>9.100000381469727</v>
+        <v>6.659999847412109</v>
       </c>
     </row>
     <row r="75">
@@ -1254,10 +1254,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9.134054183959961</v>
+        <v>6.650833606719971</v>
       </c>
       <c r="C75" t="n">
-        <v>9.060000419616699</v>
+        <v>6.980000019073486</v>
       </c>
     </row>
     <row r="76">
@@ -1265,10 +1265,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9.152407646179199</v>
+        <v>6.782351493835449</v>
       </c>
       <c r="C76" t="n">
-        <v>9.010000228881836</v>
+        <v>6.940000057220459</v>
       </c>
     </row>
     <row r="77">
@@ -1276,10 +1276,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9.130060195922852</v>
+        <v>6.834836483001709</v>
       </c>
       <c r="C77" t="n">
-        <v>8.890000343322754</v>
+        <v>6.819999694824219</v>
       </c>
     </row>
     <row r="78">
@@ -1287,10 +1287,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9.059871673583984</v>
+        <v>6.778087615966797</v>
       </c>
       <c r="C78" t="n">
-        <v>8.949999809265137</v>
+        <v>6.909999370574951</v>
       </c>
     </row>
     <row r="79">
@@ -1298,10 +1298,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9.037644386291504</v>
+        <v>6.798355102539062</v>
       </c>
       <c r="C79" t="n">
-        <v>8.930000305175781</v>
+        <v>6.940000057220459</v>
       </c>
     </row>
     <row r="80">
@@ -1309,10 +1309,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9.028630256652832</v>
+        <v>6.83128023147583</v>
       </c>
       <c r="C80" t="n">
-        <v>9.020000457763672</v>
+        <v>6.819999694824219</v>
       </c>
     </row>
     <row r="81">
@@ -1320,10 +1320,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9.063457489013672</v>
+        <v>6.775300979614258</v>
       </c>
       <c r="C81" t="n">
-        <v>9.010000228881836</v>
+        <v>6.829999923706055</v>
       </c>
     </row>
     <row r="82">
@@ -1331,10 +1331,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9.088103294372559</v>
+        <v>6.75068473815918</v>
       </c>
       <c r="C82" t="n">
-        <v>9.069999694824219</v>
+        <v>6.949999332427979</v>
       </c>
     </row>
     <row r="83">
@@ -1342,10 +1342,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9.123414039611816</v>
+        <v>6.813848972320557</v>
       </c>
       <c r="C83" t="n">
-        <v>9.109999656677246</v>
+        <v>6.819999694824219</v>
       </c>
     </row>
     <row r="84">
@@ -1353,10 +1353,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9.161309242248535</v>
+        <v>6.771138191223145</v>
       </c>
       <c r="C84" t="n">
-        <v>9.319999694824219</v>
+        <v>6.900000095367432</v>
       </c>
     </row>
     <row r="85">
@@ -1364,10 +1364,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9.27173900604248</v>
+        <v>6.790946006774902</v>
       </c>
       <c r="C85" t="n">
-        <v>9.229999542236328</v>
+        <v>7.03000020980835</v>
       </c>
     </row>
     <row r="86">
@@ -1375,10 +1375,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9.307368278503418</v>
+        <v>6.880918979644775</v>
       </c>
       <c r="C86" t="n">
-        <v>9.390000343322754</v>
+        <v>6.96999979019165</v>
       </c>
     </row>
     <row r="87">
@@ -1386,10 +1386,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9.378958702087402</v>
+        <v>6.888081550598145</v>
       </c>
       <c r="C87" t="n">
-        <v>9.390000343322754</v>
+        <v>6.909999370574951</v>
       </c>
     </row>
     <row r="88">
@@ -1397,10 +1397,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9.423863410949707</v>
+        <v>6.848179817199707</v>
       </c>
       <c r="C88" t="n">
-        <v>9.539999961853027</v>
+        <v>6.999999523162842</v>
       </c>
     </row>
     <row r="89">
@@ -1408,10 +1408,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9.50941276550293</v>
+        <v>6.880881309509277</v>
       </c>
       <c r="C89" t="n">
-        <v>9.409999847412109</v>
+        <v>7.119999885559082</v>
       </c>
     </row>
     <row r="90">
@@ -1419,10 +1419,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9.50054931640625</v>
+        <v>6.971144199371338</v>
       </c>
       <c r="C90" t="n">
-        <v>9.479999542236328</v>
+        <v>7.039999485015869</v>
       </c>
     </row>
     <row r="91">
@@ -1430,10 +1430,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9.508410453796387</v>
+        <v>6.965250015258789</v>
       </c>
       <c r="C91" t="n">
-        <v>9.439999580383301</v>
+        <v>7.019999504089355</v>
       </c>
     </row>
     <row r="92">
@@ -1441,10 +1441,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9.497496604919434</v>
+        <v>6.942308902740479</v>
       </c>
       <c r="C92" t="n">
-        <v>9.470000267028809</v>
+        <v>7.279999732971191</v>
       </c>
     </row>
     <row r="93">
@@ -1452,10 +1452,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9.502429008483887</v>
+        <v>7.085022926330566</v>
       </c>
       <c r="C93" t="n">
-        <v>9.449999809265137</v>
+        <v>7.230000019073486</v>
       </c>
     </row>
     <row r="94">
@@ -1463,10 +1463,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9.49899959564209</v>
+        <v>7.127738952636719</v>
       </c>
       <c r="C94" t="n">
-        <v>9.359999656677246</v>
+        <v>6.869999885559082</v>
       </c>
     </row>
     <row r="95">
@@ -1474,10 +1474,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9.453866958618164</v>
+        <v>6.922895908355713</v>
       </c>
       <c r="C95" t="n">
-        <v>9.25</v>
+        <v>6.779999732971191</v>
       </c>
     </row>
     <row r="96">
@@ -1485,10 +1485,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9.373076438903809</v>
+        <v>6.767148017883301</v>
       </c>
       <c r="C96" t="n">
-        <v>9.300000190734863</v>
+        <v>6.639999866485596</v>
       </c>
     </row>
     <row r="97">
@@ -1496,10 +1496,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9.348569869995117</v>
+        <v>6.628528594970703</v>
       </c>
       <c r="C97" t="n">
-        <v>9.420000076293945</v>
+        <v>6.659999847412109</v>
       </c>
     </row>
     <row r="98">
@@ -1507,10 +1507,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9.402097702026367</v>
+        <v>6.585620403289795</v>
       </c>
       <c r="C98" t="n">
-        <v>9.210000038146973</v>
+        <v>6.510000228881836</v>
       </c>
     </row>
     <row r="99">
@@ -1518,10 +1518,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9.351415634155273</v>
+        <v>6.490253925323486</v>
       </c>
       <c r="C99" t="n">
-        <v>9.159999847412109</v>
+        <v>6.689999580383301</v>
       </c>
     </row>
     <row r="100">
@@ -1529,10 +1529,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9.281414031982422</v>
+        <v>6.550697803497314</v>
       </c>
       <c r="C100" t="n">
-        <v>9.25</v>
+        <v>6.59999942779541</v>
       </c>
     </row>
     <row r="101">
@@ -1540,10 +1540,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9.281638145446777</v>
+        <v>6.53740930557251</v>
       </c>
       <c r="C101" t="n">
-        <v>9.25</v>
+        <v>6.659999847412109</v>
       </c>
     </row>
     <row r="102">
@@ -1551,10 +1551,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9.297136306762695</v>
+        <v>6.559890270233154</v>
       </c>
       <c r="C102" t="n">
-        <v>9.260000228881836</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="103">
@@ -1562,10 +1562,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9.312702178955078</v>
+        <v>6.624602794647217</v>
       </c>
       <c r="C103" t="n">
-        <v>9.25</v>
+        <v>6.889999389648438</v>
       </c>
     </row>
     <row r="104">
@@ -1573,10 +1573,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9.31595516204834</v>
+        <v>6.735976219177246</v>
       </c>
       <c r="C104" t="n">
-        <v>9.239999771118164</v>
+        <v>7.019999504089355</v>
       </c>
     </row>
     <row r="105">
@@ -1584,10 +1584,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9.31035041809082</v>
+        <v>6.861154079437256</v>
       </c>
       <c r="C105" t="n">
-        <v>9.289999961853027</v>
+        <v>6.980000019073486</v>
       </c>
     </row>
     <row r="106">
@@ -1595,10 +1595,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9.327712059020996</v>
+        <v>6.889264106750488</v>
       </c>
       <c r="C106" t="n">
-        <v>9.189999580383301</v>
+        <v>7.230000019073486</v>
       </c>
     </row>
     <row r="107">
@@ -1606,10 +1606,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9.29737663269043</v>
+        <v>7.038813591003418</v>
       </c>
       <c r="C107" t="n">
-        <v>9.170000076293945</v>
+        <v>7.34999942779541</v>
       </c>
     </row>
     <row r="108">
@@ -1617,10 +1617,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9.262980461120605</v>
+        <v>7.18127965927124</v>
       </c>
       <c r="C108" t="n">
-        <v>9.159999847412109</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="109">
@@ -1628,10 +1628,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9.240418434143066</v>
+        <v>7.177727699279785</v>
       </c>
       <c r="C109" t="n">
-        <v>9.210000038146973</v>
+        <v>7.669999599456787</v>
       </c>
     </row>
     <row r="110">
@@ -1639,10 +1639,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9.253206253051758</v>
+        <v>7.41328763961792</v>
       </c>
       <c r="C110" t="n">
-        <v>9.159999847412109</v>
+        <v>7.759999752044678</v>
       </c>
     </row>
     <row r="111">
@@ -1650,10 +1650,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9.245882987976074</v>
+        <v>7.58394718170166</v>
       </c>
       <c r="C111" t="n">
-        <v>9.140000343322754</v>
+        <v>7.570000171661377</v>
       </c>
     </row>
     <row r="112">
@@ -1661,10 +1661,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9.228846549987793</v>
+        <v>7.530027389526367</v>
       </c>
       <c r="C112" t="n">
-        <v>9</v>
+        <v>7.619999885559082</v>
       </c>
     </row>
     <row r="113">
@@ -1672,10 +1672,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9.158029556274414</v>
+        <v>7.51858377456665</v>
       </c>
       <c r="C113" t="n">
-        <v>8.890000343322754</v>
+        <v>7.669999599456787</v>
       </c>
     </row>
     <row r="114">
@@ -1683,10 +1683,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9.064417839050293</v>
+        <v>7.548710346221924</v>
       </c>
       <c r="C114" t="n">
-        <v>8.970000267028809</v>
+        <v>7.589999675750732</v>
       </c>
     </row>
     <row r="115">
@@ -1694,10 +1694,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9.043700218200684</v>
+        <v>7.515867233276367</v>
       </c>
       <c r="C115" t="n">
-        <v>8.859999656677246</v>
+        <v>7.739999294281006</v>
       </c>
     </row>
     <row r="116">
@@ -1705,10 +1705,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>9.004172325134277</v>
+        <v>7.587044715881348</v>
       </c>
       <c r="C116" t="n">
-        <v>8.840000152587891</v>
+        <v>7.84999942779541</v>
       </c>
     </row>
     <row r="117">
@@ -1716,10 +1716,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>8.970669746398926</v>
+        <v>7.691346168518066</v>
       </c>
       <c r="C117" t="n">
-        <v>8.819999694824219</v>
+        <v>8.210000038146973</v>
       </c>
     </row>
     <row r="118">
@@ -1727,10 +1727,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>8.945884704589844</v>
+        <v>7.954048156738281</v>
       </c>
       <c r="C118" t="n">
-        <v>8.979999542236328</v>
+        <v>8.159999847412109</v>
       </c>
     </row>
     <row r="119">
@@ -1738,10 +1738,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>8.997905731201172</v>
+        <v>8.041506767272949</v>
       </c>
       <c r="C119" t="n">
-        <v>9.180000305175781</v>
+        <v>8.029999732971191</v>
       </c>
     </row>
     <row r="120">
@@ -1749,10 +1749,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9.126438140869141</v>
+        <v>7.979180812835693</v>
       </c>
       <c r="C120" t="n">
-        <v>8.310001373291016</v>
+        <v>7.920000076293945</v>
       </c>
     </row>
     <row r="121">
@@ -1760,10 +1760,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>8.859807014465332</v>
+        <v>7.874904632568359</v>
       </c>
       <c r="C121" t="n">
-        <v>8.25</v>
+        <v>7.699999809265137</v>
       </c>
     </row>
     <row r="122">
@@ -1771,10 +1771,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>8.620269775390625</v>
+        <v>7.697456836700439</v>
       </c>
       <c r="C122" t="n">
-        <v>8.109999656677246</v>
+        <v>7.900000095367432</v>
       </c>
     </row>
     <row r="123">
@@ -1782,10 +1782,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>8.447149276733398</v>
+        <v>7.742049694061279</v>
       </c>
       <c r="C123" t="n">
-        <v>8.060000419616699</v>
+        <v>7.730000019073486</v>
       </c>
     </row>
     <row r="124">
@@ -1793,10 +1793,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>8.345572471618652</v>
+        <v>7.677196502685547</v>
       </c>
       <c r="C124" t="n">
-        <v>8.100000381469727</v>
+        <v>7.710000038146973</v>
       </c>
     </row>
     <row r="125">
@@ -1804,10 +1804,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>8.313779830932617</v>
+        <v>7.628608226776123</v>
       </c>
       <c r="C125" t="n">
-        <v>8.239999771118164</v>
+        <v>7.880000114440918</v>
       </c>
     </row>
     <row r="126">
@@ -1815,10 +1815,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>8.355743408203125</v>
+        <v>7.714139938354492</v>
       </c>
       <c r="C126" t="n">
-        <v>8.25</v>
+        <v>7.639999866485596</v>
       </c>
     </row>
     <row r="127">
@@ -1826,10 +1826,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>8.404035568237305</v>
+        <v>7.615015983581543</v>
       </c>
       <c r="C127" t="n">
-        <v>8.100000381469727</v>
+        <v>7.989999771118164</v>
       </c>
     </row>
     <row r="128">
@@ -1837,10 +1837,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>8.385248184204102</v>
+        <v>7.770116806030273</v>
       </c>
       <c r="C128" t="n">
-        <v>8.060000419616699</v>
+        <v>7.789999961853027</v>
       </c>
     </row>
     <row r="129">
@@ -1848,10 +1848,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>8.343154907226562</v>
+        <v>7.734274387359619</v>
       </c>
       <c r="C129" t="n">
-        <v>8</v>
+        <v>8.199999809265137</v>
       </c>
     </row>
     <row r="130">
@@ -1859,10 +1859,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>8.293235778808594</v>
+        <v>7.950799465179443</v>
       </c>
       <c r="C130" t="n">
-        <v>8.029999732971191</v>
+        <v>8.380000114440918</v>
       </c>
     </row>
     <row r="131">
@@ -1870,10 +1870,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>8.270499229431152</v>
+        <v>8.171027183532715</v>
       </c>
       <c r="C131" t="n">
-        <v>7.890000343322754</v>
+        <v>8.329999923706055</v>
       </c>
     </row>
     <row r="132">
@@ -1881,10 +1881,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>8.220721244812012</v>
+        <v>8.225544929504395</v>
       </c>
       <c r="C132" t="n">
-        <v>7.570000171661377</v>
+        <v>8.210000038146973</v>
       </c>
     </row>
     <row r="133">
@@ -1892,10 +1892,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>8.088754653930664</v>
+        <v>8.15758228302002</v>
       </c>
       <c r="C133" t="n">
-        <v>7.230000495910645</v>
+        <v>8.539999008178711</v>
       </c>
     </row>
     <row r="134">
@@ -1903,10 +1903,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>7.894974231719971</v>
+        <v>8.324002265930176</v>
       </c>
       <c r="C134" t="n">
-        <v>7.209999561309814</v>
+        <v>8.799999237060547</v>
       </c>
     </row>
     <row r="135">
@@ -1914,10 +1914,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>7.753897190093994</v>
+        <v>8.572782516479492</v>
       </c>
       <c r="C135" t="n">
-        <v>6.969999313354492</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="136">
@@ -1925,10 +1925,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>7.617597103118896</v>
+        <v>8.644295692443848</v>
       </c>
       <c r="C136" t="n">
-        <v>6.960000038146973</v>
+        <v>8.819999694824219</v>
       </c>
     </row>
     <row r="137">
@@ -1936,10 +1936,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>7.524860858917236</v>
+        <v>8.698566436767578</v>
       </c>
       <c r="C137" t="n">
-        <v>7.199999809265137</v>
+        <v>8.819999694824219</v>
       </c>
     </row>
     <row r="138">
@@ -1947,10 +1947,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>7.525260448455811</v>
+        <v>8.718854904174805</v>
       </c>
       <c r="C138" t="n">
-        <v>6.969999313354492</v>
+        <v>8.739999771118164</v>
       </c>
     </row>
     <row r="139">
@@ -1958,10 +1958,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>7.502952575683594</v>
+        <v>8.673338890075684</v>
       </c>
       <c r="C139" t="n">
-        <v>7.079999923706055</v>
+        <v>8.859999656677246</v>
       </c>
     </row>
     <row r="140">
@@ -1969,10 +1969,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>7.503421306610107</v>
+        <v>8.724763870239258</v>
       </c>
       <c r="C140" t="n">
-        <v>6.739999771118164</v>
+        <v>9.449999809265137</v>
       </c>
     </row>
     <row r="141">
@@ -1980,10 +1980,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>7.437310218811035</v>
+        <v>9.125293731689453</v>
       </c>
       <c r="C141" t="n">
-        <v>6.489999771118164</v>
+        <v>9.079999923706055</v>
       </c>
     </row>
     <row r="142">
@@ -1991,10 +1991,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>7.320503234863281</v>
+        <v>9.076693534851074</v>
       </c>
       <c r="C142" t="n">
-        <v>5.900000095367432</v>
+        <v>9.090000152587891</v>
       </c>
     </row>
     <row r="143">
@@ -2002,10 +2002,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>7.116618633270264</v>
+        <v>9.020278930664062</v>
       </c>
       <c r="C143" t="n">
-        <v>6.260000228881836</v>
+        <v>9.079999923706055</v>
       </c>
     </row>
     <row r="144">
@@ -2013,10 +2013,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>7.008331775665283</v>
+        <v>8.994997978210449</v>
       </c>
       <c r="C144" t="n">
-        <v>5.900000095367432</v>
+        <v>9.239998817443848</v>
       </c>
     </row>
     <row r="145">
@@ -2024,10 +2024,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>6.898751735687256</v>
+        <v>9.08903694152832</v>
       </c>
       <c r="C145" t="n">
-        <v>5.350000381469727</v>
+        <v>9.199999809265137</v>
       </c>
     </row>
     <row r="146">
@@ -2035,10 +2035,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>6.736884593963623</v>
+        <v>9.110306739807129</v>
       </c>
       <c r="C146" t="n">
-        <v>5.630000591278076</v>
+        <v>9.210000038146973</v>
       </c>
     </row>
     <row r="147">
@@ -2046,10 +2046,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>6.63478422164917</v>
+        <v>9.116965293884277</v>
       </c>
       <c r="C147" t="n">
-        <v>5.010000228881836</v>
+        <v>9.340000152587891</v>
       </c>
     </row>
     <row r="148">
@@ -2057,10 +2057,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>6.498044967651367</v>
+        <v>9.200984001159668</v>
       </c>
       <c r="C148" t="n">
-        <v>5.010000228881836</v>
+        <v>9.220000267028809</v>
       </c>
     </row>
     <row r="149">
@@ -2068,10 +2068,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>6.379178047180176</v>
+        <v>9.164059638977051</v>
       </c>
       <c r="C149" t="n">
-        <v>4.5</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="150">
@@ -2079,10 +2079,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>6.238285541534424</v>
+        <v>9.157110214233398</v>
       </c>
       <c r="C150" t="n">
-        <v>4.470000267028809</v>
+        <v>9.449999809265137</v>
       </c>
     </row>
     <row r="151">
@@ -2090,10 +2090,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>6.113976955413818</v>
+        <v>9.285031318664551</v>
       </c>
       <c r="C151" t="n">
-        <v>4.329999923706055</v>
+        <v>9.119999885559082</v>
       </c>
     </row>
     <row r="152">
@@ -2101,10 +2101,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>6.005201816558838</v>
+        <v>9.136353492736816</v>
       </c>
       <c r="C152" t="n">
-        <v>4.010000228881836</v>
+        <v>9.019999504089355</v>
       </c>
     </row>
     <row r="153">
@@ -2112,10 +2112,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.895078182220459</v>
+        <v>8.990272521972656</v>
       </c>
       <c r="C153" t="n">
-        <v>4.950000286102295</v>
+        <v>8.909999847412109</v>
       </c>
     </row>
     <row r="154">
@@ -2123,10 +2123,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.872045516967773</v>
+        <v>8.867825508117676</v>
       </c>
       <c r="C154" t="n">
-        <v>5.390000343322754</v>
+        <v>9.149998664855957</v>
       </c>
     </row>
     <row r="155">
@@ -2134,10 +2134,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.928398132324219</v>
+        <v>8.973979949951172</v>
       </c>
       <c r="C155" t="n">
-        <v>5.25</v>
+        <v>9.039999961853027</v>
       </c>
     </row>
     <row r="156">
@@ -2145,10 +2145,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>6.005037307739258</v>
+        <v>8.966419219970703</v>
       </c>
       <c r="C156" t="n">
-        <v>5.190000057220459</v>
+        <v>9.079999923706055</v>
       </c>
     </row>
     <row r="157">
@@ -2156,10 +2156,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>6.07521390914917</v>
+        <v>8.97663402557373</v>
       </c>
       <c r="C157" t="n">
-        <v>5.03000020980835</v>
+        <v>8.949999809265137</v>
       </c>
     </row>
     <row r="158">
@@ -2167,10 +2167,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>6.115688323974609</v>
+        <v>8.901260375976562</v>
       </c>
       <c r="C158" t="n">
-        <v>4.829999923706055</v>
+        <v>8.929999351501465</v>
       </c>
     </row>
     <row r="159">
@@ -2178,10 +2178,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>6.116710186004639</v>
+        <v>8.851911544799805</v>
       </c>
       <c r="C159" t="n">
-        <v>4.400000095367432</v>
+        <v>8.789999961853027</v>
       </c>
     </row>
     <row r="160">
@@ -2189,10 +2189,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>6.061605453491211</v>
+        <v>8.748272895812988</v>
       </c>
       <c r="C160" t="n">
-        <v>4.360000133514404</v>
+        <v>8.989999771118164</v>
       </c>
     </row>
     <row r="161">
@@ -2200,10 +2200,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.990267753601074</v>
+        <v>8.82863712310791</v>
       </c>
       <c r="C161" t="n">
-        <v>4.239999771118164</v>
+        <v>8.859999656677246</v>
       </c>
     </row>
     <row r="162">
@@ -2211,10 +2211,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.914591789245605</v>
+        <v>8.795445442199707</v>
       </c>
       <c r="C162" t="n">
-        <v>4.53000020980835</v>
+        <v>8.890000343322754</v>
       </c>
     </row>
     <row r="163">
@@ -2222,10 +2222,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.871005058288574</v>
+        <v>8.789831161499023</v>
       </c>
       <c r="C163" t="n">
-        <v>4.710000038146973</v>
+        <v>8.819999694824219</v>
       </c>
     </row>
     <row r="164">
@@ -2233,10 +2233,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.86130428314209</v>
+        <v>8.747248649597168</v>
       </c>
       <c r="C164" t="n">
-        <v>5.03000020980835</v>
+        <v>8.859999656677246</v>
       </c>
     </row>
     <row r="165">
@@ -2244,10 +2244,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.894586086273193</v>
+        <v>8.752385139465332</v>
       </c>
       <c r="C165" t="n">
-        <v>5.37000036239624</v>
+        <v>8.789999961853027</v>
       </c>
     </row>
     <row r="166">
@@ -2255,10 +2255,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.974717617034912</v>
+        <v>8.715239524841309</v>
       </c>
       <c r="C166" t="n">
-        <v>5.159999847412109</v>
+        <v>8.520000457763672</v>
       </c>
     </row>
     <row r="167">
@@ -2266,10 +2266,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>6.048147678375244</v>
+        <v>8.528410911560059</v>
       </c>
       <c r="C167" t="n">
-        <v>5.289999961853027</v>
+        <v>8.649999618530273</v>
       </c>
     </row>
     <row r="168">
@@ -2277,10 +2277,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>6.120007991790771</v>
+        <v>8.523918151855469</v>
       </c>
       <c r="C168" t="n">
-        <v>5.03000020980835</v>
+        <v>8.840000152587891</v>
       </c>
     </row>
     <row r="169">
@@ -2288,10 +2288,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>6.153815746307373</v>
+        <v>8.658426284790039</v>
       </c>
       <c r="C169" t="n">
-        <v>4.940000057220459</v>
+        <v>9.060000419616699</v>
       </c>
     </row>
     <row r="170">
@@ -2299,10 +2299,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>6.156140804290771</v>
+        <v>8.860232353210449</v>
       </c>
       <c r="C170" t="n">
-        <v>5.119999885559082</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171">
@@ -2310,10 +2310,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>6.162389755249023</v>
+        <v>8.905679702758789</v>
       </c>
       <c r="C171" t="n">
-        <v>4.980000495910645</v>
+        <v>9.300000190734863</v>
       </c>
     </row>
     <row r="172">
@@ -2321,10 +2321,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>6.155853271484375</v>
+        <v>9.097463607788086</v>
       </c>
       <c r="C172" t="n">
-        <v>4.769999980926514</v>
+        <v>9.779999732971191</v>
       </c>
     </row>
     <row r="173">
@@ -2332,10 +2332,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>6.125063419342041</v>
+        <v>9.491350173950195</v>
       </c>
       <c r="C173" t="n">
-        <v>4.769999980926514</v>
+        <v>9.779999732971191</v>
       </c>
     </row>
     <row r="174">
@@ -2343,10 +2343,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>6.089446544647217</v>
+        <v>9.659189224243164</v>
       </c>
       <c r="C174" t="n">
-        <v>4.890000343322754</v>
+        <v>10.17000007629395</v>
       </c>
     </row>
     <row r="175">
@@ -2354,10 +2354,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>6.068497657775879</v>
+        <v>9.950599670410156</v>
       </c>
       <c r="C175" t="n">
-        <v>4.87000036239624</v>
+        <v>9.829999923706055</v>
       </c>
     </row>
     <row r="176">
@@ -2365,10 +2365,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>6.055253982543945</v>
+        <v>9.853236198425293</v>
       </c>
       <c r="C176" t="n">
-        <v>5.170000553131104</v>
+        <v>10.02000045776367</v>
       </c>
     </row>
     <row r="177">
@@ -2376,10 +2376,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>6.07509183883667</v>
+        <v>9.901674270629883</v>
       </c>
       <c r="C177" t="n">
-        <v>5.380000114440918</v>
+        <v>10.85999965667725</v>
       </c>
     </row>
     <row r="178">
@@ -2387,10 +2387,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>6.127553939819336</v>
+        <v>10.48240947723389</v>
       </c>
       <c r="C178" t="n">
-        <v>5.260000705718994</v>
+        <v>11.52999973297119</v>
       </c>
     </row>
     <row r="179">
@@ -2398,10 +2398,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>6.175231456756592</v>
+        <v>11.18960571289062</v>
       </c>
       <c r="C179" t="n">
-        <v>5.090000629425049</v>
+        <v>11.52000045776367</v>
       </c>
     </row>
     <row r="180">
@@ -2409,10 +2409,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>6.195479393005371</v>
+        <v>11.44673728942871</v>
       </c>
       <c r="C180" t="n">
-        <v>4.920000076293945</v>
+        <v>11.28999996185303</v>
       </c>
     </row>
     <row r="181">
@@ -2420,10 +2420,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>6.183138370513916</v>
+        <v>11.34049129486084</v>
       </c>
       <c r="C181" t="n">
-        <v>4.860000133514404</v>
+        <v>11.1899995803833</v>
       </c>
     </row>
     <row r="182">
@@ -2431,10 +2431,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>6.153512954711914</v>
+        <v>11.20684337615967</v>
       </c>
       <c r="C182" t="n">
-        <v>4.96999979019165</v>
+        <v>10.78999996185303</v>
       </c>
     </row>
     <row r="183">
@@ -2442,10 +2442,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>6.132379531860352</v>
+        <v>10.89591979980469</v>
       </c>
       <c r="C183" t="n">
-        <v>4.87000036239624</v>
+        <v>10.72000026702881</v>
       </c>
     </row>
     <row r="184">
@@ -2453,10 +2453,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>6.108932018280029</v>
+        <v>10.72120571136475</v>
       </c>
       <c r="C184" t="n">
-        <v>4.87000036239624</v>
+        <v>10.52999973297119</v>
       </c>
     </row>
     <row r="185">
@@ -2464,10 +2464,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>6.088329315185547</v>
+        <v>10.54787254333496</v>
       </c>
       <c r="C185" t="n">
-        <v>5.240000247955322</v>
+        <v>10.82999992370605</v>
       </c>
     </row>
     <row r="186">
@@ -2475,10 +2475,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>6.106974601745605</v>
+        <v>10.67951011657715</v>
       </c>
       <c r="C186" t="n">
-        <v>5.119999885559082</v>
+        <v>10.85999965667725</v>
       </c>
     </row>
     <row r="187">
@@ -2486,10 +2486,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>6.128745079040527</v>
+        <v>10.7763557434082</v>
       </c>
       <c r="C187" t="n">
-        <v>4.980000495910645</v>
+        <v>11.19999980926514</v>
       </c>
     </row>
     <row r="188">
@@ -2497,10 +2497,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>6.134765625</v>
+        <v>11.02907276153564</v>
       </c>
       <c r="C188" t="n">
-        <v>4.71999979019165</v>
+        <v>11.36999988555908</v>
       </c>
     </row>
     <row r="189">
@@ -2508,10 +2508,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>6.108161926269531</v>
+        <v>11.24867343902588</v>
       </c>
       <c r="C189" t="n">
-        <v>4.890000343322754</v>
+        <v>11.51000118255615</v>
       </c>
     </row>
     <row r="190">
@@ -2519,10 +2519,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>6.08790397644043</v>
+        <v>11.4155330657959</v>
       </c>
       <c r="C190" t="n">
-        <v>4.900000095367432</v>
+        <v>11.5600004196167</v>
       </c>
     </row>
     <row r="191">
@@ -2530,10 +2530,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>6.074521541595459</v>
+        <v>11.50359058380127</v>
       </c>
       <c r="C191" t="n">
-        <v>5.309999942779541</v>
+        <v>11.93000030517578</v>
       </c>
     </row>
     <row r="192">
@@ -2541,10 +2541,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>6.104954719543457</v>
+        <v>11.77430534362793</v>
       </c>
       <c r="C192" t="n">
-        <v>5.300000190734863</v>
+        <v>11.76000022888184</v>
       </c>
     </row>
     <row r="193">
@@ -2552,10 +2552,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>6.150058746337891</v>
+        <v>11.77468299865723</v>
       </c>
       <c r="C193" t="n">
-        <v>5.489999771118164</v>
+        <v>11.44999980926514</v>
       </c>
     </row>
     <row r="194">
@@ -2563,10 +2563,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>6.214753150939941</v>
+        <v>11.53958129882812</v>
       </c>
       <c r="C194" t="n">
-        <v>5.630000591278076</v>
+        <v>11.44999980926514</v>
       </c>
     </row>
     <row r="195">
@@ -2574,10 +2574,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>6.293826580047607</v>
+        <v>11.43781185150146</v>
       </c>
       <c r="C195" t="n">
-        <v>5.650000095367432</v>
+        <v>11.53999996185303</v>
       </c>
     </row>
     <row r="196">
@@ -2585,10 +2585,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>6.368943214416504</v>
+        <v>11.47687339782715</v>
       </c>
       <c r="C196" t="n">
-        <v>5.840000152587891</v>
+        <v>11.47999954223633</v>
       </c>
     </row>
     <row r="197">
@@ -2596,10 +2596,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>6.452353954315186</v>
+        <v>11.46229267120361</v>
       </c>
       <c r="C197" t="n">
-        <v>6.030000686645508</v>
+        <v>11.43000030517578</v>
       </c>
     </row>
     <row r="198">
@@ -2607,10 +2607,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>6.549447536468506</v>
+        <v>11.41701316833496</v>
       </c>
       <c r="C198" t="n">
-        <v>5.850000381469727</v>
+        <v>11.57999992370605</v>
       </c>
     </row>
     <row r="199">
@@ -2618,10 +2618,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>6.610294818878174</v>
+        <v>11.49846649169922</v>
       </c>
       <c r="C199" t="n">
-        <v>5.710000038146973</v>
+        <v>11.69999980926514</v>
       </c>
     </row>
     <row r="200">
@@ -2629,10 +2629,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>6.62459135055542</v>
+        <v>11.6198205947876</v>
       </c>
       <c r="C200" t="n">
-        <v>5.87000036239624</v>
+        <v>11.61999988555908</v>
       </c>
     </row>
     <row r="201">
@@ -2640,10 +2640,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>6.639280796051025</v>
+        <v>11.61168384552002</v>
       </c>
       <c r="C201" t="n">
-        <v>5.900000095367432</v>
+        <v>12.27000045776367</v>
       </c>
     </row>
     <row r="202">
@@ -2651,10 +2651,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>6.655723094940186</v>
+        <v>12.02984619140625</v>
       </c>
       <c r="C202" t="n">
-        <v>6.190000057220459</v>
+        <v>11.76000022888184</v>
       </c>
     </row>
     <row r="203">
@@ -2662,10 +2662,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>6.710656642913818</v>
+        <v>11.87807083129883</v>
       </c>
       <c r="C203" t="n">
-        <v>6.570000648498535</v>
+        <v>11.69999980926514</v>
       </c>
     </row>
     <row r="204">
@@ -2673,10 +2673,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>6.828242301940918</v>
+        <v>11.72492599487305</v>
       </c>
       <c r="C204" t="n">
-        <v>7.340000152587891</v>
+        <v>11.97999954223633</v>
       </c>
     </row>
     <row r="205">
@@ -2684,10 +2684,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>7.083022594451904</v>
+        <v>11.86573696136475</v>
       </c>
       <c r="C205" t="n">
-        <v>7.53000020980835</v>
+        <v>12.55000019073486</v>
       </c>
     </row>
     <row r="206">
@@ -2695,10 +2695,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>7.388676166534424</v>
+        <v>12.32495307922363</v>
       </c>
       <c r="C206" t="n">
-        <v>7.239999771118164</v>
+        <v>12.17000007629395</v>
       </c>
     </row>
     <row r="207">
@@ -2706,10 +2706,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>7.572040557861328</v>
+        <v>12.25608825683594</v>
       </c>
       <c r="C207" t="n">
-        <v>6.810000419616699</v>
+        <v>11.93000030517578</v>
       </c>
     </row>
     <row r="208">
@@ -2717,10 +2717,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>7.551868915557861</v>
+        <v>12.01651287078857</v>
       </c>
       <c r="C208" t="n">
-        <v>6.130000114440918</v>
+        <v>12.27000045776367</v>
       </c>
     </row>
     <row r="209">
@@ -2728,10 +2728,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>7.333752632141113</v>
+        <v>12.15243339538574</v>
       </c>
       <c r="C209" t="n">
-        <v>6.460000514984131</v>
+        <v>12.64999961853027</v>
       </c>
     </row>
     <row r="210">
@@ -2739,10 +2739,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>7.198277473449707</v>
+        <v>12.49297523498535</v>
       </c>
       <c r="C210" t="n">
-        <v>6.5</v>
+        <v>12.56999969482422</v>
       </c>
     </row>
     <row r="211">
@@ -2750,10 +2750,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>7.131872653961182</v>
+        <v>12.5708646774292</v>
       </c>
       <c r="C211" t="n">
-        <v>6.550000667572021</v>
+        <v>12.90999984741211</v>
       </c>
     </row>
     <row r="212">
@@ -2761,10 +2761,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>7.113328456878662</v>
+        <v>12.79849243164062</v>
       </c>
       <c r="C212" t="n">
-        <v>6.330000400543213</v>
+        <v>12.8100004196167</v>
       </c>
     </row>
     <row r="213">
@@ -2772,10 +2772,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>7.076350688934326</v>
+        <v>12.82693290710449</v>
       </c>
       <c r="C213" t="n">
-        <v>6.330000400543213</v>
+        <v>13.36999988555908</v>
       </c>
     </row>
     <row r="214">
@@ -2783,10 +2783,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>7.042070865631104</v>
+        <v>13.192795753479</v>
       </c>
       <c r="C214" t="n">
-        <v>6.230000019073486</v>
+        <v>13.19999980926514</v>
       </c>
     </row>
     <row r="215">
@@ -2794,10 +2794,10 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>7.00025749206543</v>
+        <v>13.23646259307861</v>
       </c>
       <c r="C215" t="n">
-        <v>6.28000020980835</v>
+        <v>12.48999977111816</v>
       </c>
     </row>
     <row r="216">
@@ -2805,10 +2805,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>6.974354267120361</v>
+        <v>12.7343578338623</v>
       </c>
       <c r="C216" t="n">
-        <v>6.150000095367432</v>
+        <v>12.6899995803833</v>
       </c>
     </row>
     <row r="217">
@@ -2816,10 +2816,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>6.939043998718262</v>
+        <v>12.65357398986816</v>
       </c>
       <c r="C217" t="n">
-        <v>5.949999809265137</v>
+        <v>12.48999977111816</v>
       </c>
     </row>
     <row r="218">
@@ -2827,10 +2827,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>6.877599716186523</v>
+        <v>12.53973293304443</v>
       </c>
       <c r="C218" t="n">
-        <v>6.030000686645508</v>
+        <v>12.82999992370605</v>
       </c>
     </row>
     <row r="219">
@@ -2838,10 +2838,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>6.834092617034912</v>
+        <v>12.71970081329346</v>
       </c>
       <c r="C219" t="n">
-        <v>5.909999847412109</v>
+        <v>12.85000038146973</v>
       </c>
     </row>
     <row r="220">
@@ -2849,10 +2849,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>6.789093494415283</v>
+        <v>12.82374000549316</v>
       </c>
       <c r="C220" t="n">
-        <v>6.010000228881836</v>
+        <v>12.20999908447266</v>
       </c>
     </row>
     <row r="221">
@@ -2860,10 +2860,10 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>6.768218040466309</v>
+        <v>12.41605949401855</v>
       </c>
       <c r="C221" t="n">
-        <v>6.079999923706055</v>
+        <v>12.14000034332275</v>
       </c>
     </row>
     <row r="222">
@@ -2871,10 +2871,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>6.770864009857178</v>
+        <v>12.18305969238281</v>
       </c>
       <c r="C222" t="n">
-        <v>5.980000495910645</v>
+        <v>12.31999969482422</v>
       </c>
     </row>
     <row r="223">
@@ -2882,10 +2882,10 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>6.766944885253906</v>
+        <v>12.24768257141113</v>
       </c>
       <c r="C223" t="n">
-        <v>6.050000667572021</v>
+        <v>12.30000019073486</v>
       </c>
     </row>
     <row r="224">
@@ -2893,10 +2893,10 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>6.771423816680908</v>
+        <v>12.28232383728027</v>
       </c>
       <c r="C224" t="n">
-        <v>6.190000057220459</v>
+        <v>12.14999961853027</v>
       </c>
     </row>
     <row r="225">
@@ -2904,10 +2904,10 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>6.798866748809814</v>
+        <v>12.18669986724854</v>
       </c>
       <c r="C225" t="n">
-        <v>6.119999885559082</v>
+        <v>12.46000003814697</v>
       </c>
     </row>
     <row r="226">
@@ -2915,10 +2915,10 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>6.818591594696045</v>
+        <v>12.35004901885986</v>
       </c>
       <c r="C226" t="n">
-        <v>6.090000629425049</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="227">
@@ -2926,10 +2926,10 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>6.826265335083008</v>
+        <v>12.29231834411621</v>
       </c>
       <c r="C227" t="n">
-        <v>5.840000152587891</v>
+        <v>12.17000007629395</v>
       </c>
     </row>
     <row r="228">
@@ -2937,10 +2937,10 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>6.790346622467041</v>
+        <v>12.1938533782959</v>
       </c>
       <c r="C228" t="n">
-        <v>6.099999904632568</v>
+        <v>12.69999980926514</v>
       </c>
     </row>
     <row r="229">
@@ -2948,10 +2948,10 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>6.78513240814209</v>
+        <v>12.51517963409424</v>
       </c>
       <c r="C229" t="n">
-        <v>6.059999942779541</v>
+        <v>12.92000007629395</v>
       </c>
     </row>
     <row r="230">
@@ -2959,10 +2959,10 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>6.786757469177246</v>
+        <v>12.81540584564209</v>
       </c>
       <c r="C230" t="n">
-        <v>6.360000133514404</v>
+        <v>12.72999954223633</v>
       </c>
     </row>
     <row r="231">
@@ -2970,10 +2970,10 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>6.836053371429443</v>
+        <v>12.78127670288086</v>
       </c>
       <c r="C231" t="n">
-        <v>6.739999771118164</v>
+        <v>12.51000022888184</v>
       </c>
     </row>
     <row r="232">
@@ -2981,10 +2981,10 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>6.955605030059814</v>
+        <v>12.58981513977051</v>
       </c>
       <c r="C232" t="n">
-        <v>6.860000610351562</v>
+        <v>12.51000022888184</v>
       </c>
     </row>
     <row r="233">
@@ -2992,10 +2992,10 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>7.099949836730957</v>
+        <v>12.51462936401367</v>
       </c>
       <c r="C233" t="n">
-        <v>6.800000190734863</v>
+        <v>12.38000011444092</v>
       </c>
     </row>
     <row r="234">
@@ -3003,10 +3003,10 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>7.208533763885498</v>
+        <v>12.41450977325439</v>
       </c>
       <c r="C234" t="n">
-        <v>6.660000324249268</v>
+        <v>12.19999980926514</v>
       </c>
     </row>
     <row r="235">
@@ -3014,10 +3014,10 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>7.247448921203613</v>
+        <v>12.25487899780273</v>
       </c>
       <c r="C235" t="n">
-        <v>6.680000305175781</v>
+        <v>12.23999977111816</v>
       </c>
     </row>
     <row r="236">
@@ -3025,10 +3025,10 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>7.255002975463867</v>
+        <v>12.22150897979736</v>
       </c>
       <c r="C236" t="n">
-        <v>6.840000152587891</v>
+        <v>12.23999977111816</v>
       </c>
     </row>
     <row r="237">
@@ -3036,10 +3036,10 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>7.281856536865234</v>
+        <v>12.22299289703369</v>
       </c>
       <c r="C237" t="n">
-        <v>6.980000019073486</v>
+        <v>12.22999954223633</v>
       </c>
     </row>
     <row r="238">
@@ -3047,10 +3047,10 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>7.336978912353516</v>
+        <v>12.21841144561768</v>
       </c>
       <c r="C238" t="n">
-        <v>6.880000591278076</v>
+        <v>12.10999965667725</v>
       </c>
     </row>
     <row r="239">
@@ -3058,10 +3058,10 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>7.366751194000244</v>
+        <v>12.13544940948486</v>
       </c>
       <c r="C239" t="n">
-        <v>6.929999351501465</v>
+        <v>11.44999980926514</v>
       </c>
     </row>
     <row r="240">
@@ -3069,10 +3069,10 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>7.38966703414917</v>
+        <v>11.65803909301758</v>
       </c>
       <c r="C240" t="n">
-        <v>7.010000228881836</v>
+        <v>11.73000049591064</v>
       </c>
     </row>
     <row r="241">
@@ -3080,10 +3080,10 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>7.420742511749268</v>
+        <v>11.64171504974365</v>
       </c>
       <c r="C241" t="n">
-        <v>6.920000553131104</v>
+        <v>11.9399995803833</v>
       </c>
     </row>
     <row r="242">
@@ -3091,10 +3091,10 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>7.426788330078125</v>
+        <v>11.82540035247803</v>
       </c>
       <c r="C242" t="n">
-        <v>6.739999771118164</v>
+        <v>12.22000026702881</v>
       </c>
     </row>
     <row r="243">
@@ -3102,10 +3102,10 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>7.385371208190918</v>
+        <v>12.09061431884766</v>
       </c>
       <c r="C243" t="n">
-        <v>6.610000133514404</v>
+        <v>12.27000045776367</v>
       </c>
     </row>
     <row r="244">
@@ -3113,10 +3113,10 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>7.315423488616943</v>
+        <v>12.22252655029297</v>
       </c>
       <c r="C244" t="n">
-        <v>6.690000057220459</v>
+        <v>12.48999977111816</v>
       </c>
     </row>
     <row r="245">
@@ -3124,10 +3124,10 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>7.272833347320557</v>
+        <v>12.40243244171143</v>
       </c>
       <c r="C245" t="n">
-        <v>6.860000610351562</v>
+        <v>12.43000030517578</v>
       </c>
     </row>
     <row r="246">
@@ -3135,10 +3135,10 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>7.283952236175537</v>
+        <v>12.4307165145874</v>
       </c>
       <c r="C246" t="n">
-        <v>6.960000038146973</v>
+        <v>11.26000022888184</v>
       </c>
     </row>
     <row r="247">
@@ -3146,10 +3146,10 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>7.33010721206665</v>
+        <v>11.64069938659668</v>
       </c>
       <c r="C247" t="n">
-        <v>6.929999351501465</v>
+        <v>11.53999996185303</v>
       </c>
     </row>
     <row r="248">
@@ -3157,10 +3157,10 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>7.369473457336426</v>
+        <v>11.47822284698486</v>
       </c>
       <c r="C248" t="n">
-        <v>6.860000610351562</v>
+        <v>11.63000011444092</v>
       </c>
     </row>
     <row r="249">
@@ -3168,10 +3168,10 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>7.380558013916016</v>
+        <v>11.55105018615723</v>
       </c>
       <c r="C249" t="n">
-        <v>7.090000152587891</v>
+        <v>11.40999984741211</v>
       </c>
     </row>
     <row r="250">
@@ -3179,10 +3179,10 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>7.427015781402588</v>
+        <v>11.44445037841797</v>
       </c>
       <c r="C250" t="n">
-        <v>7.230000495910645</v>
+        <v>11.60999965667725</v>
       </c>
     </row>
     <row r="251">
@@ -3190,10 +3190,10 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>7.503315925598145</v>
+        <v>11.51994228363037</v>
       </c>
       <c r="C251" t="n">
-        <v>7.109999656677246</v>
+        <v>11.73999977111816</v>
       </c>
     </row>
     <row r="252">
@@ -3201,10 +3201,10 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>7.541074752807617</v>
+        <v>11.65353393554688</v>
       </c>
       <c r="C252" t="n">
-        <v>7.03000020980835</v>
+        <v>11.81999969482422</v>
       </c>
     </row>
     <row r="253">
@@ -3212,10 +3212,10 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>7.536474704742432</v>
+        <v>11.75758934020996</v>
       </c>
       <c r="C253" t="n">
-        <v>7.039999961853027</v>
+        <v>11.71000003814697</v>
       </c>
     </row>
     <row r="254">
@@ -3223,10 +3223,10 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>7.522354125976562</v>
+        <v>11.71742820739746</v>
       </c>
       <c r="C254" t="n">
-        <v>6.980000019073486</v>
+        <v>11.57999992370605</v>
       </c>
     </row>
     <row r="255">
@@ -3234,10 +3234,10 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>7.496815204620361</v>
+        <v>11.60336494445801</v>
       </c>
       <c r="C255" t="n">
-        <v>6.889999866485596</v>
+        <v>11.32999992370605</v>
       </c>
     </row>
     <row r="256">
@@ -3245,10 +3245,10 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>7.456307411193848</v>
+        <v>11.39174365997314</v>
       </c>
       <c r="C256" t="n">
-        <v>6.869999885559082</v>
+        <v>11.55000019073486</v>
       </c>
     </row>
     <row r="257">
@@ -3256,10 +3256,10 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>7.419254779815674</v>
+        <v>11.4544095993042</v>
       </c>
       <c r="C257" t="n">
-        <v>6.840000152587891</v>
+        <v>11.84000015258789</v>
       </c>
     </row>
     <row r="258">
@@ -3267,10 +3267,10 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>7.387992858886719</v>
+        <v>11.69719696044922</v>
       </c>
       <c r="C258" t="n">
-        <v>6.660000324249268</v>
+        <v>12.14999961853027</v>
       </c>
     </row>
     <row r="259">
@@ -3278,10 +3278,10 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>7.331063747406006</v>
+        <v>12.00433254241943</v>
       </c>
       <c r="C259" t="n">
-        <v>6.980000019073486</v>
+        <v>12.14000034332275</v>
       </c>
     </row>
     <row r="260">
@@ -3289,10 +3289,10 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>7.346401214599609</v>
+        <v>12.10951805114746</v>
       </c>
       <c r="C260" t="n">
-        <v>6.940000534057617</v>
+        <v>12.10999965667725</v>
       </c>
     </row>
     <row r="261">
@@ -3300,10 +3300,10 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>7.373323917388916</v>
+        <v>12.10583400726318</v>
       </c>
       <c r="C261" t="n">
-        <v>6.820000171661377</v>
+        <v>12.48999977111816</v>
       </c>
     </row>
     <row r="262">
@@ -3311,10 +3311,10 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>7.371441841125488</v>
+        <v>12.35174751281738</v>
       </c>
       <c r="C262" t="n">
-        <v>6.909999847412109</v>
+        <v>13.32999992370605</v>
       </c>
     </row>
     <row r="263">
@@ -3322,10 +3322,10 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>7.378762722015381</v>
+        <v>13.02799415588379</v>
       </c>
       <c r="C263" t="n">
-        <v>6.940000534057617</v>
+        <v>13.0600004196167</v>
       </c>
     </row>
     <row r="264">
@@ -3333,10 +3333,10 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>7.393361568450928</v>
+        <v>13.11398029327393</v>
       </c>
       <c r="C264" t="n">
-        <v>6.820000171661377</v>
+        <v>12.8100004196167</v>
       </c>
     </row>
     <row r="265">
@@ -3344,10 +3344,10 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>7.381339550018311</v>
+        <v>12.91025638580322</v>
       </c>
       <c r="C265" t="n">
-        <v>6.830000400543213</v>
+        <v>13.89999961853027</v>
       </c>
     </row>
     <row r="266">
@@ -3355,10 +3355,10 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>7.366161823272705</v>
+        <v>13.55944728851318</v>
       </c>
       <c r="C266" t="n">
-        <v>6.949999332427979</v>
+        <v>14.88000011444092</v>
       </c>
     </row>
     <row r="267">
@@ -3366,10 +3366,10 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>7.379067897796631</v>
+        <v>14.52619743347168</v>
       </c>
       <c r="C267" t="n">
-        <v>6.820000171661377</v>
+        <v>14.52999973297119</v>
       </c>
     </row>
     <row r="268">
@@ -3377,10 +3377,10 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>7.370882034301758</v>
+        <v>14.61747074127197</v>
       </c>
       <c r="C268" t="n">
-        <v>6.90000057220459</v>
+        <v>14.8100004196167</v>
       </c>
     </row>
     <row r="269">
@@ -3388,10 +3388,10 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>7.374399662017822</v>
+        <v>14.74629306793213</v>
       </c>
       <c r="C269" t="n">
-        <v>7.03000020980835</v>
+        <v>14.90999984741211</v>
       </c>
     </row>
     <row r="270">
@@ -3399,10 +3399,10 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>7.407896995544434</v>
+        <v>14.87389278411865</v>
       </c>
       <c r="C270" t="n">
-        <v>6.969999313354492</v>
+        <v>15.98999977111816</v>
       </c>
     </row>
     <row r="271">
@@ -3410,10 +3410,10 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>7.429349422454834</v>
+        <v>15.64002895355225</v>
       </c>
       <c r="C271" t="n">
-        <v>6.909999847412109</v>
+        <v>15.97000026702881</v>
       </c>
     </row>
     <row r="272">
@@ -3421,10 +3421,10 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>7.427674293518066</v>
+        <v>15.92165756225586</v>
       </c>
       <c r="C272" t="n">
-        <v>7</v>
+        <v>15.88000011444092</v>
       </c>
     </row>
     <row r="273">
@@ -3432,10 +3432,10 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>7.438035488128662</v>
+        <v>15.88648509979248</v>
       </c>
       <c r="C273" t="n">
-        <v>7.119999885559082</v>
+        <v>15.63000011444092</v>
       </c>
     </row>
     <row r="274">
@@ -3443,10 +3443,10 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>7.475398540496826</v>
+        <v>15.68726253509521</v>
       </c>
       <c r="C274" t="n">
-        <v>7.039999961853027</v>
+        <v>15.47999954223633</v>
       </c>
     </row>
     <row r="275">
@@ -3454,10 +3454,10 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>7.493499755859375</v>
+        <v>15.51576042175293</v>
       </c>
       <c r="C275" t="n">
-        <v>7.019999980926514</v>
+        <v>15.10999965667725</v>
       </c>
     </row>
     <row r="276">
@@ -3465,10 +3465,10 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>7.495388507843018</v>
+        <v>15.21850490570068</v>
       </c>
       <c r="C276" t="n">
-        <v>7.28000020980835</v>
+        <v>15.27999973297119</v>
       </c>
     </row>
     <row r="277">
@@ -3476,10 +3476,10 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>7.549316883087158</v>
+        <v>15.22978591918945</v>
       </c>
       <c r="C277" t="n">
-        <v>7.230000495910645</v>
+        <v>14.86999988555908</v>
       </c>
     </row>
     <row r="278">
@@ -3487,10 +3487,10 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>7.593516826629639</v>
+        <v>14.9874849319458</v>
       </c>
       <c r="C278" t="n">
-        <v>6.869999885559082</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279">
@@ -3498,10 +3498,10 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>7.538965225219727</v>
+        <v>14.97057342529297</v>
       </c>
       <c r="C279" t="n">
-        <v>6.78000020980835</v>
+        <v>15.02000045776367</v>
       </c>
     </row>
     <row r="280">
@@ -3509,10 +3509,10 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>7.452538967132568</v>
+        <v>15.00585460662842</v>
       </c>
       <c r="C280" t="n">
-        <v>6.640000343322754</v>
+        <v>14.77000045776367</v>
       </c>
     </row>
     <row r="281">
@@ -3520,10 +3520,10 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>7.355244636535645</v>
+        <v>14.84799194335938</v>
       </c>
       <c r="C281" t="n">
-        <v>6.660000324249268</v>
+        <v>14.52000045776367</v>
       </c>
     </row>
     <row r="282">
@@ -3531,10 +3531,10 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>7.287821292877197</v>
+        <v>14.61027050018311</v>
       </c>
       <c r="C282" t="n">
-        <v>6.510000705718994</v>
+        <v>14.77999973297119</v>
       </c>
     </row>
     <row r="283">
@@ -3542,10 +3542,10 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>7.219898223876953</v>
+        <v>14.70815944671631</v>
       </c>
       <c r="C283" t="n">
-        <v>6.690000057220459</v>
+        <v>14.90999984741211</v>
       </c>
     </row>
     <row r="284">
@@ -3553,10 +3553,10 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>7.203826904296875</v>
+        <v>14.8605489730835</v>
       </c>
       <c r="C284" t="n">
-        <v>6.599999904632568</v>
+        <v>15.42000007629395</v>
       </c>
     </row>
     <row r="285">
@@ -3564,10 +3564,10 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>7.192040920257568</v>
+        <v>15.25215625762939</v>
       </c>
       <c r="C285" t="n">
-        <v>6.660000324249268</v>
+        <v>15.26000022888184</v>
       </c>
     </row>
     <row r="286">
@@ -3575,10 +3575,10 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>7.195571422576904</v>
+        <v>15.28759002685547</v>
       </c>
       <c r="C286" t="n">
-        <v>6.750000476837158</v>
+        <v>15.1899995803833</v>
       </c>
     </row>
     <row r="287">
@@ -3586,10 +3586,10 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>7.22016716003418</v>
+        <v>15.21261501312256</v>
       </c>
       <c r="C287" t="n">
-        <v>6.889999866485596</v>
+        <v>14.95999908447266</v>
       </c>
     </row>
     <row r="288">
@@ -3597,10 +3597,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>7.27268123626709</v>
+        <v>15.03037071228027</v>
       </c>
       <c r="C288" t="n">
-        <v>7.019999980926514</v>
+        <v>15.01000022888184</v>
       </c>
     </row>
     <row r="289">
@@ -3608,10 +3608,10 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>7.34743070602417</v>
+        <v>14.99923419952393</v>
       </c>
       <c r="C289" t="n">
-        <v>6.980000019073486</v>
+        <v>14.85999965667725</v>
       </c>
     </row>
     <row r="290">
@@ -3619,10 +3619,10 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>7.401450157165527</v>
+        <v>14.9041166305542</v>
       </c>
       <c r="C290" t="n">
-        <v>7.230000495910645</v>
+        <v>14.90999984741211</v>
       </c>
     </row>
     <row r="291">
@@ -3630,10 +3630,10 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>7.486600875854492</v>
+        <v>14.89927768707275</v>
       </c>
       <c r="C291" t="n">
-        <v>7.349999904632568</v>
+        <v>14.93000030517578</v>
       </c>
     </row>
     <row r="292">
@@ -3641,10 +3641,10 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>7.58613920211792</v>
+        <v>14.92142868041992</v>
       </c>
       <c r="C292" t="n">
-        <v>7.250000476837158</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="293">
@@ -3652,10 +3652,10 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>7.6378493309021</v>
+        <v>14.63766193389893</v>
       </c>
       <c r="C293" t="n">
-        <v>7.670000076293945</v>
+        <v>14.22999954223633</v>
       </c>
     </row>
     <row r="294">
@@ -3663,10 +3663,10 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>7.75958251953125</v>
+        <v>14.33602619171143</v>
       </c>
       <c r="C294" t="n">
-        <v>7.760000705718994</v>
+        <v>14.0600004196167</v>
       </c>
     </row>
     <row r="295">
@@ -3674,10 +3674,10 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>7.892011642456055</v>
+        <v>14.12918090820312</v>
       </c>
       <c r="C295" t="n">
-        <v>7.570000171661377</v>
+        <v>14.47999858856201</v>
       </c>
     </row>
     <row r="296">
@@ -3685,10 +3685,10 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>7.933313846588135</v>
+        <v>14.3567943572998</v>
       </c>
       <c r="C296" t="n">
-        <v>7.62000036239624</v>
+        <v>14.60999870300293</v>
       </c>
     </row>
     <row r="297">
@@ -3696,10 +3696,10 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>7.945458889007568</v>
+        <v>14.558030128479</v>
       </c>
       <c r="C297" t="n">
-        <v>7.670000076293945</v>
+        <v>14.42000007629395</v>
       </c>
     </row>
     <row r="298">
@@ -3707,10 +3707,10 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>7.959292888641357</v>
+        <v>14.48312664031982</v>
       </c>
       <c r="C298" t="n">
-        <v>7.590000152587891</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="299">
@@ -3718,10 +3718,10 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>7.947733402252197</v>
+        <v>14.31874465942383</v>
       </c>
       <c r="C299" t="n">
-        <v>7.739999771118164</v>
+        <v>14.01000022888184</v>
       </c>
     </row>
     <row r="300">
@@ -3729,10 +3729,10 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>7.973994255065918</v>
+        <v>14.10010814666748</v>
       </c>
       <c r="C300" t="n">
-        <v>7.84999942779541</v>
+        <v>13.60999965667725</v>
       </c>
     </row>
     <row r="301">
@@ -3740,10 +3740,10 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>8.033161163330078</v>
+        <v>13.75466251373291</v>
       </c>
       <c r="C301" t="n">
-        <v>8.210000038146973</v>
+        <v>13.27999973297119</v>
       </c>
     </row>
     <row r="302">
@@ -3751,10 +3751,10 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>8.186492919921875</v>
+        <v>13.40774440765381</v>
       </c>
       <c r="C302" t="n">
-        <v>8.159999847412109</v>
+        <v>13.90999984741211</v>
       </c>
     </row>
     <row r="303">
@@ -3762,10 +3762,10 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>8.300074577331543</v>
+        <v>13.72226524353027</v>
       </c>
       <c r="C303" t="n">
-        <v>8.029999732971191</v>
+        <v>14.1899995803833</v>
       </c>
     </row>
     <row r="304">
@@ -3773,10 +3773,10 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>8.316715240478516</v>
+        <v>14.07958602905273</v>
       </c>
       <c r="C304" t="n">
-        <v>7.920000076293945</v>
+        <v>13.90999984741211</v>
       </c>
     </row>
     <row r="305">
@@ -3784,10 +3784,10 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>8.265795707702637</v>
+        <v>13.99906444549561</v>
       </c>
       <c r="C305" t="n">
-        <v>7.699999809265137</v>
+        <v>13.81999969482422</v>
       </c>
     </row>
     <row r="306">
@@ -3795,10 +3795,10 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>8.152130126953125</v>
+        <v>13.87003993988037</v>
       </c>
       <c r="C306" t="n">
-        <v>7.900000095367432</v>
+        <v>14.02999973297119</v>
       </c>
     </row>
     <row r="307">
@@ -3806,10 +3806,10 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>8.126063346862793</v>
+        <v>13.97370529174805</v>
       </c>
       <c r="C307" t="n">
-        <v>7.730000019073486</v>
+        <v>13.78999996185303</v>
       </c>
     </row>
     <row r="308">
@@ -3817,10 +3817,10 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>8.083605766296387</v>
+        <v>13.86722278594971</v>
       </c>
       <c r="C308" t="n">
-        <v>7.710000038146973</v>
+        <v>13.85999965667725</v>
       </c>
     </row>
     <row r="309">
@@ -3828,10 +3828,10 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>8.046496391296387</v>
+        <v>13.85577201843262</v>
       </c>
       <c r="C309" t="n">
-        <v>7.880000591278076</v>
+        <v>14.39000034332275</v>
       </c>
     </row>
     <row r="310">
@@ -3839,10 +3839,10 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>8.072220802307129</v>
+        <v>14.22424125671387</v>
       </c>
       <c r="C310" t="n">
-        <v>7.640000343322754</v>
+        <v>13.94999980926514</v>
       </c>
     </row>
     <row r="311">
@@ -3850,10 +3850,10 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>8.03809928894043</v>
+        <v>14.0796422958374</v>
       </c>
       <c r="C311" t="n">
-        <v>7.990000247955322</v>
+        <v>13.90999984741211</v>
       </c>
     </row>
     <row r="312">
@@ -3861,10 +3861,10 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>8.09846019744873</v>
+        <v>13.95022392272949</v>
       </c>
       <c r="C312" t="n">
-        <v>7.789999961853027</v>
+        <v>14.02000045776367</v>
       </c>
     </row>
     <row r="313">
@@ -3872,10 +3872,10 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>8.106846809387207</v>
+        <v>13.99388408660889</v>
       </c>
       <c r="C313" t="n">
-        <v>8.199999809265137</v>
+        <v>13.31999969482422</v>
       </c>
     </row>
     <row r="314">
@@ -3883,10 +3883,10 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>8.217889785766602</v>
+        <v>13.54889297485352</v>
       </c>
       <c r="C314" t="n">
-        <v>8.380000114440918</v>
+        <v>13.71000003814697</v>
       </c>
     </row>
     <row r="315">
@@ -3894,10 +3894,10 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>8.377011299133301</v>
+        <v>13.6181173324585</v>
       </c>
       <c r="C315" t="n">
-        <v>8.329999923706055</v>
+        <v>13.80000019073486</v>
       </c>
     </row>
     <row r="316">
@@ -3905,10 +3905,10 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>8.473999977111816</v>
+        <v>13.75996685028076</v>
       </c>
       <c r="C316" t="n">
-        <v>8.210000038146973</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="317">
@@ -3916,10 +3916,10 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>8.473372459411621</v>
+        <v>13.77056217193604</v>
       </c>
       <c r="C317" t="n">
-        <v>8.539999961853027</v>
+        <v>13.81999969482422</v>
       </c>
     </row>
     <row r="318">
@@ -3927,10 +3927,10 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>8.559600830078125</v>
+        <v>13.80818462371826</v>
       </c>
       <c r="C318" t="n">
-        <v>8.800000190734863</v>
+        <v>13.93000030517578</v>
       </c>
     </row>
     <row r="319">
@@ -3938,10 +3938,10 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>8.728789329528809</v>
+        <v>13.90011501312256</v>
       </c>
       <c r="C319" t="n">
-        <v>8.75</v>
+        <v>13.89999961853027</v>
       </c>
     </row>
     <row r="320">
@@ -3949,10 +3949,10 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>8.833008766174316</v>
+        <v>13.91432571411133</v>
       </c>
       <c r="C320" t="n">
-        <v>8.819999694824219</v>
+        <v>13.59000015258789</v>
       </c>
     </row>
     <row r="321">
@@ -3960,10 +3960,10 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>8.900586128234863</v>
+        <v>13.70026588439941</v>
       </c>
       <c r="C321" t="n">
-        <v>8.819999694824219</v>
+        <v>13.46000003814697</v>
       </c>
     </row>
     <row r="322">
@@ -3971,10 +3971,10 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>8.929187774658203</v>
+        <v>13.521897315979</v>
       </c>
       <c r="C322" t="n">
-        <v>8.739999771118164</v>
+        <v>12.98999977111816</v>
       </c>
     </row>
     <row r="323">
@@ -3982,10 +3982,10 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>8.904599189758301</v>
+        <v>13.15227031707764</v>
       </c>
       <c r="C323" t="n">
-        <v>8.859999656677246</v>
+        <v>13</v>
       </c>
     </row>
     <row r="324">
@@ -3993,10 +3993,10 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>8.926263809204102</v>
+        <v>13.01737117767334</v>
       </c>
       <c r="C324" t="n">
-        <v>9.449999809265137</v>
+        <v>12.67000007629395</v>
       </c>
     </row>
     <row r="325">
@@ -4004,10 +4004,10 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>9.189285278320312</v>
+        <v>12.77501773834229</v>
       </c>
       <c r="C325" t="n">
-        <v>9.079999923706055</v>
+        <v>12.56999969482422</v>
       </c>
     </row>
     <row r="326">
@@ -4015,10 +4015,10 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>9.238863945007324</v>
+        <v>12.61197376251221</v>
       </c>
       <c r="C326" t="n">
-        <v>9.090000152587891</v>
+        <v>12.72999954223633</v>
       </c>
     </row>
     <row r="327">
@@ -4026,10 +4026,10 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>9.214157104492188</v>
+        <v>12.67397689819336</v>
       </c>
       <c r="C327" t="n">
-        <v>9.079999923706055</v>
+        <v>13.07999992370605</v>
       </c>
     </row>
     <row r="328">
@@ -4037,10 +4037,10 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>9.181519508361816</v>
+        <v>12.95186138153076</v>
       </c>
       <c r="C328" t="n">
-        <v>9.239999771118164</v>
+        <v>13.17000007629395</v>
       </c>
     </row>
     <row r="329">
@@ -4048,10 +4048,10 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>9.23227596282959</v>
+        <v>13.12470436096191</v>
       </c>
       <c r="C329" t="n">
-        <v>9.199999809265137</v>
+        <v>12.89999961853027</v>
       </c>
     </row>
     <row r="330">
@@ -4059,10 +4059,10 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>9.260824203491211</v>
+        <v>12.9871711730957</v>
       </c>
       <c r="C330" t="n">
-        <v>9.210000038146973</v>
+        <v>13.3100004196167</v>
       </c>
     </row>
     <row r="331">
@@ -4070,10 +4070,10 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>9.274632453918457</v>
+        <v>13.19010734558105</v>
       </c>
       <c r="C331" t="n">
-        <v>9.340000152587891</v>
+        <v>13.05000019073486</v>
       </c>
     </row>
     <row r="332">
@@ -4081,10 +4081,10 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>9.335482597351074</v>
+        <v>13.11995220184326</v>
       </c>
       <c r="C332" t="n">
-        <v>9.220000267028809</v>
+        <v>13.02999973297119</v>
       </c>
     </row>
     <row r="333">
@@ -4092,10 +4092,10 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>9.323967933654785</v>
+        <v>13.05101203918457</v>
       </c>
       <c r="C333" t="n">
-        <v>9.25</v>
+        <v>13.10999965667725</v>
       </c>
     </row>
     <row r="334">
@@ -4103,10 +4103,10 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>9.315352439880371</v>
+        <v>13.08661460876465</v>
       </c>
       <c r="C334" t="n">
-        <v>9.449999809265137</v>
+        <v>13.01000022888184</v>
       </c>
     </row>
     <row r="335">
@@ -4114,10 +4114,10 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>9.401031494140625</v>
+        <v>13.04077053070068</v>
       </c>
       <c r="C335" t="n">
-        <v>9.119999885559082</v>
+        <v>12.89000034332275</v>
       </c>
     </row>
     <row r="336">
@@ -4125,10 +4125,10 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>9.317355155944824</v>
+        <v>12.93478679656982</v>
       </c>
       <c r="C336" t="n">
-        <v>9.020000457763672</v>
+        <v>12.94999980926514</v>
       </c>
     </row>
     <row r="337">
@@ -4136,10 +4136,10 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>9.196258544921875</v>
+        <v>12.93526172637939</v>
       </c>
       <c r="C337" t="n">
-        <v>8.909999847412109</v>
+        <v>13.02999973297119</v>
       </c>
     </row>
     <row r="338">
@@ -4147,10 +4147,10 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>9.081755638122559</v>
+        <v>13.00059223175049</v>
       </c>
       <c r="C338" t="n">
-        <v>9.149999618530273</v>
+        <v>12.76000022888184</v>
       </c>
     </row>
     <row r="339">
@@ -4158,10 +4158,10 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>9.12348747253418</v>
+        <v>12.84478664398193</v>
       </c>
       <c r="C339" t="n">
-        <v>9.039999961853027</v>
+        <v>12.68000030517578</v>
       </c>
     </row>
     <row r="340">
@@ -4169,10 +4169,10 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>9.134860992431641</v>
+        <v>12.71625518798828</v>
       </c>
       <c r="C340" t="n">
-        <v>9.079999923706055</v>
+        <v>12.98999977111816</v>
       </c>
     </row>
     <row r="341">
@@ -4180,10 +4180,10 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>9.149965286254883</v>
+        <v>12.88786888122559</v>
       </c>
       <c r="C341" t="n">
-        <v>8.949999809265137</v>
+        <v>12.85999965667725</v>
       </c>
     </row>
     <row r="342">
@@ -4191,10 +4191,10 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>9.103852272033691</v>
+        <v>12.8866662979126</v>
       </c>
       <c r="C342" t="n">
-        <v>8.930000305175781</v>
+        <v>13.22000026702881</v>
       </c>
     </row>
     <row r="343">
@@ -4202,10 +4202,10 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>9.05790901184082</v>
+        <v>13.10818767547607</v>
       </c>
       <c r="C343" t="n">
-        <v>8.789999961853027</v>
+        <v>13.39999961853027</v>
       </c>
     </row>
     <row r="344">
@@ -4213,10 +4213,10 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>8.977193832397461</v>
+        <v>13.32901763916016</v>
       </c>
       <c r="C344" t="n">
-        <v>8.989999771118164</v>
+        <v>13.55000019073486</v>
       </c>
     </row>
     <row r="345">
@@ -4224,10 +4224,10 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>9.006811141967773</v>
+        <v>13.50056743621826</v>
       </c>
       <c r="C345" t="n">
-        <v>8.859999656677246</v>
+        <v>12.81999969482422</v>
       </c>
     </row>
     <row r="346">
@@ -4235,10 +4235,10 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>8.995963096618652</v>
+        <v>13.05831813812256</v>
       </c>
       <c r="C346" t="n">
-        <v>8.890000343322754</v>
+        <v>12.77000045776367</v>
       </c>
     </row>
     <row r="347">
@@ -4246,10 +4246,10 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>8.992362976074219</v>
+        <v>12.81972408294678</v>
       </c>
       <c r="C347" t="n">
-        <v>8.819999694824219</v>
+        <v>13.22999954223633</v>
       </c>
     </row>
     <row r="348">
@@ -4257,10 +4257,516 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>8.963969230651855</v>
+        <v>13.07891178131104</v>
       </c>
       <c r="C348" t="n">
-        <v>8.859999656677246</v>
+        <v>13.71000003814697</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>13.5352258682251</v>
+      </c>
+      <c r="C349" t="n">
+        <v>13.77999973297119</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>13.74592685699463</v>
+      </c>
+      <c r="C350" t="n">
+        <v>14.15999984741211</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>14.04610729217529</v>
+      </c>
+      <c r="C351" t="n">
+        <v>14.3100004196167</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>14.25823307037354</v>
+      </c>
+      <c r="C352" t="n">
+        <v>14.30000019073486</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>14.30902671813965</v>
+      </c>
+      <c r="C353" t="n">
+        <v>14.15999984741211</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>14.21598529815674</v>
+      </c>
+      <c r="C354" t="n">
+        <v>14.15999984741211</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>14.1748218536377</v>
+      </c>
+      <c r="C355" t="n">
+        <v>14.34999942779541</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>14.29749202728271</v>
+      </c>
+      <c r="C356" t="n">
+        <v>14.28999996185303</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>14.31053829193115</v>
+      </c>
+      <c r="C357" t="n">
+        <v>14.11999988555908</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>14.18586444854736</v>
+      </c>
+      <c r="C358" t="n">
+        <v>14.89000034332275</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>14.65647792816162</v>
+      </c>
+      <c r="C359" t="n">
+        <v>15.11999988555908</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>15.02145195007324</v>
+      </c>
+      <c r="C360" t="n">
+        <v>15.08999919891357</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>15.09388065338135</v>
+      </c>
+      <c r="C361" t="n">
+        <v>15.64000034332275</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>15.46231079101562</v>
+      </c>
+      <c r="C362" t="n">
+        <v>15.51000022888184</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>15.5209379196167</v>
+      </c>
+      <c r="C363" t="n">
+        <v>15.44999980926514</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>15.46213817596436</v>
+      </c>
+      <c r="C364" t="n">
+        <v>15.69999980926514</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>15.60792350769043</v>
+      </c>
+      <c r="C365" t="n">
+        <v>15.5600004196167</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>15.57867431640625</v>
+      </c>
+      <c r="C366" t="n">
+        <v>15.42000007629395</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>15.45414257049561</v>
+      </c>
+      <c r="C367" t="n">
+        <v>16.04000091552734</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>15.82890796661377</v>
+      </c>
+      <c r="C368" t="n">
+        <v>16.54999923706055</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>16.33282470703125</v>
+      </c>
+      <c r="C369" t="n">
+        <v>16.28000068664551</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>16.30276107788086</v>
+      </c>
+      <c r="C370" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>16.05337333679199</v>
+      </c>
+      <c r="C371" t="n">
+        <v>15.9399995803833</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>15.92975807189941</v>
+      </c>
+      <c r="C372" t="n">
+        <v>15.51000022888184</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>15.61823749542236</v>
+      </c>
+      <c r="C373" t="n">
+        <v>16.86000061035156</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>16.41049003601074</v>
+      </c>
+      <c r="C374" t="n">
+        <v>17.08000183105469</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>16.89912986755371</v>
+      </c>
+      <c r="C375" t="n">
+        <v>17.95000076293945</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>17.56268310546875</v>
+      </c>
+      <c r="C376" t="n">
+        <v>18.01000022888184</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>17.81081771850586</v>
+      </c>
+      <c r="C377" t="n">
+        <v>18.6299991607666</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>18.23953056335449</v>
+      </c>
+      <c r="C378" t="n">
+        <v>19.42000007629395</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>18.88606071472168</v>
+      </c>
+      <c r="C379" t="n">
+        <v>19.29000091552734</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>18.98521041870117</v>
+      </c>
+      <c r="C380" t="n">
+        <v>20.14999961853027</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>19.50064659118652</v>
+      </c>
+      <c r="C381" t="n">
+        <v>20.1200008392334</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>19.65847587585449</v>
+      </c>
+      <c r="C382" t="n">
+        <v>19.36000061035156</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>19.17704582214355</v>
+      </c>
+      <c r="C383" t="n">
+        <v>19.54999923706055</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>19.12936019897461</v>
+      </c>
+      <c r="C384" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>19.13681793212891</v>
+      </c>
+      <c r="C385" t="n">
+        <v>19.86000061035156</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>19.36030960083008</v>
+      </c>
+      <c r="C386" t="n">
+        <v>19.79000091552734</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>19.39060974121094</v>
+      </c>
+      <c r="C387" t="n">
+        <v>19.95999908447266</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>19.48393821716309</v>
+      </c>
+      <c r="C388" t="n">
+        <v>19.55999946594238</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>19.26492500305176</v>
+      </c>
+      <c r="C389" t="n">
+        <v>19.38999938964844</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>19.0730094909668</v>
+      </c>
+      <c r="C390" t="n">
+        <v>20.47999954223633</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>19.7199764251709</v>
+      </c>
+      <c r="C391" t="n">
+        <v>20.20000076293945</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>19.77657699584961</v>
+      </c>
+      <c r="C392" t="n">
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>19.75310516357422</v>
+      </c>
+      <c r="C393" t="n">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>19.44136047363281</v>
+      </c>
+      <c r="C394" t="n">
+        <v>19.67000007629395</v>
       </c>
     </row>
   </sheetData>
@@ -4294,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6007639303302801</v>
+        <v>0.3414990680843836</v>
       </c>
     </row>
   </sheetData>

--- a/NN_results/F_NN_results.xlsx
+++ b/NN_results/F_NN_results.xlsx
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.096431732177734</v>
+        <v>5.084475994110107</v>
       </c>
       <c r="C2" t="n">
         <v>5.119999408721924</v>
@@ -462,7 +462,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.130393981933594</v>
+        <v>5.107547283172607</v>
       </c>
       <c r="C3" t="n">
         <v>4.980000019073486</v>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.055545806884766</v>
+        <v>5.021425247192383</v>
       </c>
       <c r="C4" t="n">
         <v>4.71999979019165</v>
@@ -484,7 +484,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.876525402069092</v>
+        <v>4.833816528320312</v>
       </c>
       <c r="C5" t="n">
         <v>4.889999866485596</v>
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.883345127105713</v>
+        <v>4.855193614959717</v>
       </c>
       <c r="C6" t="n">
         <v>4.899999618530273</v>
@@ -506,7 +506,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.907543659210205</v>
+        <v>4.884116172790527</v>
       </c>
       <c r="C7" t="n">
         <v>5.309999465942383</v>
@@ -517,7 +517,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.139066696166992</v>
+        <v>5.131308078765869</v>
       </c>
       <c r="C8" t="n">
         <v>5.300000190734863</v>
@@ -528,7 +528,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.249117374420166</v>
+        <v>5.232048034667969</v>
       </c>
       <c r="C9" t="n">
         <v>5.489999294281006</v>
@@ -539,7 +539,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.387865543365479</v>
+        <v>5.368576526641846</v>
       </c>
       <c r="C10" t="n">
         <v>5.630000114440918</v>
@@ -550,7 +550,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.524920463562012</v>
+        <v>5.503278732299805</v>
       </c>
       <c r="C11" t="n">
         <v>5.650000095367432</v>
@@ -561,7 +561,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.592355728149414</v>
+        <v>5.563643932342529</v>
       </c>
       <c r="C12" t="n">
         <v>5.839999675750732</v>
@@ -572,7 +572,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.719220161437988</v>
+        <v>5.692066192626953</v>
       </c>
       <c r="C13" t="n">
         <v>6.03000020980835</v>
@@ -583,7 +583,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.882896900177002</v>
+        <v>5.857319831848145</v>
       </c>
       <c r="C14" t="n">
         <v>5.849999904632568</v>
@@ -594,7 +594,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.852205753326416</v>
+        <v>5.812369823455811</v>
       </c>
       <c r="C15" t="n">
         <v>5.709999561309814</v>
@@ -605,7 +605,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.744295597076416</v>
+        <v>5.695944309234619</v>
       </c>
       <c r="C16" t="n">
         <v>5.869999885559082</v>
@@ -616,7 +616,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.782380104064941</v>
+        <v>5.742266654968262</v>
       </c>
       <c r="C17" t="n">
         <v>5.899999618530273</v>
@@ -627,7 +627,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.827533721923828</v>
+        <v>5.789417266845703</v>
       </c>
       <c r="C18" t="n">
         <v>6.189999580383301</v>
@@ -638,7 +638,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.009283542633057</v>
+        <v>5.980180263519287</v>
       </c>
       <c r="C19" t="n">
         <v>6.570000171661377</v>
@@ -649,7 +649,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.312516212463379</v>
+        <v>6.292323589324951</v>
       </c>
       <c r="C20" t="n">
         <v>7.340000152587891</v>
@@ -660,7 +660,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.895394802093506</v>
+        <v>6.894211292266846</v>
       </c>
       <c r="C21" t="n">
         <v>7.53000020980835</v>
@@ -671,7 +671,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7.27190637588501</v>
+        <v>7.260788917541504</v>
       </c>
       <c r="C22" t="n">
         <v>7.239999294281006</v>
@@ -682,7 +682,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7.229546546936035</v>
+        <v>7.192739009857178</v>
       </c>
       <c r="C23" t="n">
         <v>6.809999942779541</v>
@@ -693,7 +693,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.921593189239502</v>
+        <v>6.86346960067749</v>
       </c>
       <c r="C24" t="n">
         <v>6.130000114440918</v>
@@ -704,7 +704,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.384042739868164</v>
+        <v>6.305666923522949</v>
       </c>
       <c r="C25" t="n">
         <v>6.460000038146973</v>
@@ -715,7 +715,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.337546825408936</v>
+        <v>6.278824329376221</v>
       </c>
       <c r="C26" t="n">
         <v>6.5</v>
@@ -726,7 +726,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.385337829589844</v>
+        <v>6.33579683303833</v>
       </c>
       <c r="C27" t="n">
         <v>6.550000190734863</v>
@@ -737,7 +737,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.440814971923828</v>
+        <v>6.394260406494141</v>
       </c>
       <c r="C28" t="n">
         <v>6.329999923706055</v>
@@ -748,7 +748,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.337716102600098</v>
+        <v>6.282888412475586</v>
       </c>
       <c r="C29" t="n">
         <v>6.329999923706055</v>
@@ -759,7 +759,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.282136917114258</v>
+        <v>6.228884220123291</v>
       </c>
       <c r="C30" t="n">
         <v>6.229999542236328</v>
@@ -770,7 +770,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.20720911026001</v>
+        <v>6.153526782989502</v>
       </c>
       <c r="C31" t="n">
         <v>6.28000020980835</v>
@@ -781,7 +781,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.203395843505859</v>
+        <v>6.154382228851318</v>
       </c>
       <c r="C32" t="n">
         <v>6.150000095367432</v>
@@ -792,7 +792,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.134426593780518</v>
+        <v>6.082673072814941</v>
       </c>
       <c r="C33" t="n">
         <v>5.949999332427979</v>
@@ -803,7 +803,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.987728595733643</v>
+        <v>5.931048393249512</v>
       </c>
       <c r="C34" t="n">
         <v>6.03000020980835</v>
@@ -814,7 +814,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5.96633768081665</v>
+        <v>5.917092323303223</v>
       </c>
       <c r="C35" t="n">
         <v>5.909999847412109</v>
@@ -825,7 +825,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.901463508605957</v>
+        <v>5.851500511169434</v>
       </c>
       <c r="C36" t="n">
         <v>6.009999752044678</v>
@@ -836,7 +836,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5.927102565765381</v>
+        <v>5.883296012878418</v>
       </c>
       <c r="C37" t="n">
         <v>6.079999446868896</v>
@@ -847,7 +847,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.985199928283691</v>
+        <v>5.944950103759766</v>
       </c>
       <c r="C38" t="n">
         <v>5.980000019073486</v>
@@ -858,7 +858,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.955584049224854</v>
+        <v>5.910369396209717</v>
       </c>
       <c r="C39" t="n">
         <v>6.050000190734863</v>
@@ -869,7 +869,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.975184917449951</v>
+        <v>5.932220935821533</v>
       </c>
       <c r="C40" t="n">
         <v>6.189999580383301</v>
@@ -880,7 +880,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6.066738128662109</v>
+        <v>6.028939723968506</v>
       </c>
       <c r="C41" t="n">
         <v>6.119999408721924</v>
@@ -891,7 +891,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.070969104766846</v>
+        <v>6.028326034545898</v>
       </c>
       <c r="C42" t="n">
         <v>6.090000152587891</v>
@@ -902,7 +902,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.04796314239502</v>
+        <v>6.002370357513428</v>
       </c>
       <c r="C43" t="n">
         <v>5.839999675750732</v>
@@ -913,7 +913,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.89574670791626</v>
+        <v>5.841427326202393</v>
       </c>
       <c r="C44" t="n">
         <v>6.09999942779541</v>
@@ -924,7 +924,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.96812629699707</v>
+        <v>5.926853179931641</v>
       </c>
       <c r="C45" t="n">
         <v>6.059999465942383</v>
@@ -935,7 +935,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.995406627655029</v>
+        <v>5.953814506530762</v>
       </c>
       <c r="C46" t="n">
         <v>6.359999656677246</v>
@@ -946,7 +946,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.172056674957275</v>
+        <v>6.139847755432129</v>
       </c>
       <c r="C47" t="n">
         <v>6.739999771118164</v>
@@ -957,7 +957,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.475929737091064</v>
+        <v>6.453330516815186</v>
       </c>
       <c r="C48" t="n">
         <v>6.860000133514404</v>
@@ -968,7 +968,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.681074619293213</v>
+        <v>6.653419971466064</v>
       </c>
       <c r="C49" t="n">
         <v>6.799999713897705</v>
@@ -979,7 +979,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.719887256622314</v>
+        <v>6.680584907531738</v>
       </c>
       <c r="C50" t="n">
         <v>6.659999847412109</v>
@@ -990,7 +990,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.639315128326416</v>
+        <v>6.589950561523438</v>
       </c>
       <c r="C51" t="n">
         <v>6.679999828338623</v>
@@ -1001,7 +1001,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.608064651489258</v>
+        <v>6.558506011962891</v>
       </c>
       <c r="C52" t="n">
         <v>6.839999675750732</v>
@@ -1012,7 +1012,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.692707538604736</v>
+        <v>6.649253845214844</v>
       </c>
       <c r="C53" t="n">
         <v>6.980000019073486</v>
@@ -1023,7 +1023,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.818726062774658</v>
+        <v>6.778865814208984</v>
       </c>
       <c r="C54" t="n">
         <v>6.880000114440918</v>
@@ -1034,7 +1034,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.814332008361816</v>
+        <v>6.767889499664307</v>
       </c>
       <c r="C55" t="n">
         <v>6.929999351501465</v>
@@ -1045,7 +1045,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.829906463623047</v>
+        <v>6.782963275909424</v>
       </c>
       <c r="C56" t="n">
         <v>7.010000228881836</v>
@@ -1056,7 +1056,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.885063648223877</v>
+        <v>6.83996057510376</v>
       </c>
       <c r="C57" t="n">
         <v>6.920000076293945</v>
@@ -1067,7 +1067,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.857829570770264</v>
+        <v>6.808529853820801</v>
       </c>
       <c r="C58" t="n">
         <v>6.739999771118164</v>
@@ -1078,7 +1078,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.734238147735596</v>
+        <v>6.678475856781006</v>
       </c>
       <c r="C59" t="n">
         <v>6.610000133514404</v>
@@ -1089,7 +1089,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.600892543792725</v>
+        <v>6.542544364929199</v>
       </c>
       <c r="C60" t="n">
         <v>6.689999580383301</v>
@@ -1100,7 +1100,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.592773914337158</v>
+        <v>6.540507316589355</v>
       </c>
       <c r="C61" t="n">
         <v>6.860000133514404</v>
@@ -1111,7 +1111,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.699284076690674</v>
+        <v>6.655091285705566</v>
       </c>
       <c r="C62" t="n">
         <v>6.960000038146973</v>
@@ -1122,7 +1122,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.810784339904785</v>
+        <v>6.769081592559814</v>
       </c>
       <c r="C63" t="n">
         <v>6.929999351501465</v>
@@ -1133,7 +1133,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.838404655456543</v>
+        <v>6.792914390563965</v>
       </c>
       <c r="C64" t="n">
         <v>6.860000133514404</v>
@@ -1144,7 +1144,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.801070690155029</v>
+        <v>6.751228809356689</v>
       </c>
       <c r="C65" t="n">
         <v>7.090000152587891</v>
@@ -1155,7 +1155,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.915071487426758</v>
+        <v>6.872532367706299</v>
       </c>
       <c r="C66" t="n">
         <v>7.230000019073486</v>
@@ -1166,7 +1166,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>7.057308197021484</v>
+        <v>7.018119335174561</v>
       </c>
       <c r="C67" t="n">
         <v>7.110000133514404</v>
@@ -1177,7 +1177,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>7.0455002784729</v>
+        <v>6.999130725860596</v>
       </c>
       <c r="C68" t="n">
         <v>7.03000020980835</v>
@@ -1188,7 +1188,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.979681968688965</v>
+        <v>6.92860221862793</v>
       </c>
       <c r="C69" t="n">
         <v>7.039999485015869</v>
@@ -1199,7 +1199,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.954833030700684</v>
+        <v>6.904129505157471</v>
       </c>
       <c r="C70" t="n">
         <v>6.980000019073486</v>
@@ -1210,7 +1210,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.913374900817871</v>
+        <v>6.861418724060059</v>
       </c>
       <c r="C71" t="n">
         <v>6.889999389648438</v>
@@ -1221,7 +1221,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.842357158660889</v>
+        <v>6.788283824920654</v>
       </c>
       <c r="C72" t="n">
         <v>6.869999885559082</v>
@@ -1232,7 +1232,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.799583911895752</v>
+        <v>6.746298789978027</v>
       </c>
       <c r="C73" t="n">
         <v>6.839999675750732</v>
@@ -1243,7 +1243,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.76750659942627</v>
+        <v>6.714890480041504</v>
       </c>
       <c r="C74" t="n">
         <v>6.659999847412109</v>
@@ -1254,7 +1254,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.650833606719971</v>
+        <v>6.593752384185791</v>
       </c>
       <c r="C75" t="n">
         <v>6.980000019073486</v>
@@ -1265,7 +1265,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.782351493835449</v>
+        <v>6.738296508789062</v>
       </c>
       <c r="C76" t="n">
         <v>6.940000057220459</v>
@@ -1276,7 +1276,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.834836483001709</v>
+        <v>6.789491653442383</v>
       </c>
       <c r="C77" t="n">
         <v>6.819999694824219</v>
@@ -1287,7 +1287,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.778087615966797</v>
+        <v>6.726867198944092</v>
       </c>
       <c r="C78" t="n">
         <v>6.909999370574951</v>
@@ -1298,7 +1298,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.798355102539062</v>
+        <v>6.749948978424072</v>
       </c>
       <c r="C79" t="n">
         <v>6.940000057220459</v>
@@ -1309,7 +1309,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.83128023147583</v>
+        <v>6.784148693084717</v>
       </c>
       <c r="C80" t="n">
         <v>6.819999694824219</v>
@@ -1320,7 +1320,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.775300979614258</v>
+        <v>6.723634719848633</v>
       </c>
       <c r="C81" t="n">
         <v>6.829999923706055</v>
@@ -1331,7 +1331,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.75068473815918</v>
+        <v>6.699587345123291</v>
       </c>
       <c r="C82" t="n">
         <v>6.949999332427979</v>
@@ -1342,7 +1342,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.813848972320557</v>
+        <v>6.767661094665527</v>
       </c>
       <c r="C83" t="n">
         <v>6.819999694824219</v>
@@ -1353,7 +1353,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.771138191223145</v>
+        <v>6.720280647277832</v>
       </c>
       <c r="C84" t="n">
         <v>6.900000095367432</v>
@@ -1364,7 +1364,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.790946006774902</v>
+        <v>6.742559432983398</v>
       </c>
       <c r="C85" t="n">
         <v>7.03000020980835</v>
@@ -1375,7 +1375,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.880918979644775</v>
+        <v>6.836997509002686</v>
       </c>
       <c r="C86" t="n">
         <v>6.96999979019165</v>
@@ -1386,7 +1386,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.888081550598145</v>
+        <v>6.840824127197266</v>
       </c>
       <c r="C87" t="n">
         <v>6.909999370574951</v>
@@ -1397,7 +1397,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.848179817199707</v>
+        <v>6.797643661499023</v>
       </c>
       <c r="C88" t="n">
         <v>6.999999523162842</v>
@@ -1408,7 +1408,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.880881309509277</v>
+        <v>6.833327770233154</v>
       </c>
       <c r="C89" t="n">
         <v>7.119999885559082</v>
@@ -1419,7 +1419,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.971144199371338</v>
+        <v>6.927422046661377</v>
       </c>
       <c r="C90" t="n">
         <v>7.039999485015869</v>
@@ -1430,7 +1430,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.965250015258789</v>
+        <v>6.917395114898682</v>
       </c>
       <c r="C91" t="n">
         <v>7.019999504089355</v>
@@ -1441,7 +1441,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.942308902740479</v>
+        <v>6.892582893371582</v>
       </c>
       <c r="C92" t="n">
         <v>7.279999732971191</v>
@@ -1452,7 +1452,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>7.085022926330566</v>
+        <v>7.043667793273926</v>
       </c>
       <c r="C93" t="n">
         <v>7.230000019073486</v>
@@ -1463,7 +1463,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>7.127738952636719</v>
+        <v>7.08322286605835</v>
       </c>
       <c r="C94" t="n">
         <v>6.869999885559082</v>
@@ -1474,7 +1474,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.922895908355713</v>
+        <v>6.864973068237305</v>
       </c>
       <c r="C95" t="n">
         <v>6.779999732971191</v>
@@ -1485,7 +1485,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6.767148017883301</v>
+        <v>6.707529067993164</v>
       </c>
       <c r="C96" t="n">
         <v>6.639999866485596</v>
@@ -1496,7 +1496,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6.628528594970703</v>
+        <v>6.568265438079834</v>
       </c>
       <c r="C97" t="n">
         <v>6.659999847412109</v>
@@ -1507,7 +1507,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6.585620403289795</v>
+        <v>6.530280113220215</v>
       </c>
       <c r="C98" t="n">
         <v>6.510000228881836</v>
@@ -1518,7 +1518,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.490253925323486</v>
+        <v>6.433194160461426</v>
       </c>
       <c r="C99" t="n">
         <v>6.689999580383301</v>
@@ -1529,7 +1529,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.550697803497314</v>
+        <v>6.502688407897949</v>
       </c>
       <c r="C100" t="n">
         <v>6.59999942779541</v>
@@ -1540,7 +1540,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.53740930557251</v>
+        <v>6.487470626831055</v>
       </c>
       <c r="C101" t="n">
         <v>6.659999847412109</v>
@@ -1551,7 +1551,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.559890270233154</v>
+        <v>6.512032508850098</v>
       </c>
       <c r="C102" t="n">
         <v>6.75</v>
@@ -1562,7 +1562,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.624602794647217</v>
+        <v>6.579862117767334</v>
       </c>
       <c r="C103" t="n">
         <v>6.889999389648438</v>
@@ -1573,7 +1573,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6.735976219177246</v>
+        <v>6.694879531860352</v>
       </c>
       <c r="C104" t="n">
         <v>7.019999504089355</v>
@@ -1584,7 +1584,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.861154079437256</v>
+        <v>6.821858882904053</v>
       </c>
       <c r="C105" t="n">
         <v>6.980000019073486</v>
@@ -1595,7 +1595,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.889264106750488</v>
+        <v>6.845057964324951</v>
       </c>
       <c r="C106" t="n">
         <v>7.230000019073486</v>
@@ -1606,7 +1606,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>7.038813591003418</v>
+        <v>7.000256538391113</v>
       </c>
       <c r="C107" t="n">
         <v>7.34999942779541</v>
@@ -1617,7 +1617,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>7.18127965927124</v>
+        <v>7.14372444152832</v>
       </c>
       <c r="C108" t="n">
         <v>7.25</v>
@@ -1628,7 +1628,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>7.177727699279785</v>
+        <v>7.132996559143066</v>
       </c>
       <c r="C109" t="n">
         <v>7.669999599456787</v>
@@ -1639,7 +1639,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>7.41328763961792</v>
+        <v>7.379311561584473</v>
       </c>
       <c r="C110" t="n">
         <v>7.759999752044678</v>
@@ -1650,7 +1650,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>7.58394718170166</v>
+        <v>7.549603939056396</v>
       </c>
       <c r="C111" t="n">
         <v>7.570000171661377</v>
@@ -1661,7 +1661,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>7.530027389526367</v>
+        <v>7.48565673828125</v>
       </c>
       <c r="C112" t="n">
         <v>7.619999885559082</v>
@@ -1672,7 +1672,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>7.51858377456665</v>
+        <v>7.472991466522217</v>
       </c>
       <c r="C113" t="n">
         <v>7.669999599456787</v>
@@ -1683,7 +1683,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>7.548710346221924</v>
+        <v>7.503584384918213</v>
       </c>
       <c r="C114" t="n">
         <v>7.589999675750732</v>
@@ -1694,7 +1694,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>7.515867233276367</v>
+        <v>7.467604160308838</v>
       </c>
       <c r="C115" t="n">
         <v>7.739999294281006</v>
@@ -1705,7 +1705,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>7.587044715881348</v>
+        <v>7.542693138122559</v>
       </c>
       <c r="C116" t="n">
         <v>7.84999942779541</v>
@@ -1716,7 +1716,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>7.691346168518066</v>
+        <v>7.649706840515137</v>
       </c>
       <c r="C117" t="n">
         <v>8.210000038146973</v>
@@ -1727,7 +1727,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>7.954048156738281</v>
+        <v>7.921661853790283</v>
       </c>
       <c r="C118" t="n">
         <v>8.159999847412109</v>
@@ -1738,7 +1738,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>8.041506767272949</v>
+        <v>8.005455017089844</v>
       </c>
       <c r="C119" t="n">
         <v>8.029999732971191</v>
@@ -1749,7 +1749,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>7.979180812835693</v>
+        <v>7.937061309814453</v>
       </c>
       <c r="C120" t="n">
         <v>7.920000076293945</v>
@@ -1760,7 +1760,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>7.874904632568359</v>
+        <v>7.827993392944336</v>
       </c>
       <c r="C121" t="n">
         <v>7.699999809265137</v>
@@ -1771,7 +1771,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>7.697456836700439</v>
+        <v>7.643950939178467</v>
       </c>
       <c r="C122" t="n">
         <v>7.900000095367432</v>
@@ -1782,7 +1782,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>7.742049694061279</v>
+        <v>7.694470405578613</v>
       </c>
       <c r="C123" t="n">
         <v>7.730000019073486</v>
@@ -1793,7 +1793,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>7.677196502685547</v>
+        <v>7.625861644744873</v>
       </c>
       <c r="C124" t="n">
         <v>7.710000038146973</v>
@@ -1804,7 +1804,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>7.628608226776123</v>
+        <v>7.577455997467041</v>
       </c>
       <c r="C125" t="n">
         <v>7.880000114440918</v>
@@ -1815,7 +1815,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>7.714139938354492</v>
+        <v>7.668813705444336</v>
       </c>
       <c r="C126" t="n">
         <v>7.639999866485596</v>
@@ -1826,7 +1826,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>7.615015983581543</v>
+        <v>7.563422679901123</v>
       </c>
       <c r="C127" t="n">
         <v>7.989999771118164</v>
@@ -1837,7 +1837,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>7.770116806030273</v>
+        <v>7.728758811950684</v>
       </c>
       <c r="C128" t="n">
         <v>7.789999961853027</v>
@@ -1848,7 +1848,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>7.734274387359619</v>
+        <v>7.687252044677734</v>
       </c>
       <c r="C129" t="n">
         <v>8.199999809265137</v>
@@ -1859,7 +1859,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>7.950799465179443</v>
+        <v>7.914674758911133</v>
       </c>
       <c r="C130" t="n">
         <v>8.380000114440918</v>
@@ -1870,7 +1870,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>8.171027183532715</v>
+        <v>8.138936042785645</v>
       </c>
       <c r="C131" t="n">
         <v>8.329999923706055</v>
@@ -1881,7 +1881,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>8.225544929504395</v>
+        <v>8.190179824829102</v>
       </c>
       <c r="C132" t="n">
         <v>8.210000038146973</v>
@@ -1892,7 +1892,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>8.15758228302002</v>
+        <v>8.117037773132324</v>
       </c>
       <c r="C133" t="n">
         <v>8.539999008178711</v>
@@ -1903,7 +1903,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>8.324002265930176</v>
+        <v>8.289978981018066</v>
       </c>
       <c r="C134" t="n">
         <v>8.799999237060547</v>
@@ -1914,7 +1914,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>8.572782516479492</v>
+        <v>8.54420280456543</v>
       </c>
       <c r="C135" t="n">
         <v>8.75</v>
@@ -1925,7 +1925,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>8.644295692443848</v>
+        <v>8.613716125488281</v>
       </c>
       <c r="C136" t="n">
         <v>8.819999694824219</v>
@@ -1936,7 +1936,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>8.698566436767578</v>
+        <v>8.668194770812988</v>
       </c>
       <c r="C137" t="n">
         <v>8.819999694824219</v>
@@ -1947,7 +1947,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>8.718854904174805</v>
+        <v>8.686789512634277</v>
       </c>
       <c r="C138" t="n">
         <v>8.739999771118164</v>
@@ -1958,7 +1958,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>8.673338890075684</v>
+        <v>8.638142585754395</v>
       </c>
       <c r="C139" t="n">
         <v>8.859999656677246</v>
@@ -1969,7 +1969,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>8.724763870239258</v>
+        <v>8.690775871276855</v>
       </c>
       <c r="C140" t="n">
         <v>9.449999809265137</v>
@@ -1980,7 +1980,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>9.125293731689453</v>
+        <v>9.103329658508301</v>
       </c>
       <c r="C141" t="n">
         <v>9.079999923706055</v>
@@ -1991,7 +1991,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>9.076693534851074</v>
+        <v>9.048964500427246</v>
       </c>
       <c r="C142" t="n">
         <v>9.090000152587891</v>
@@ -2002,7 +2002,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>9.020278930664062</v>
+        <v>8.992792129516602</v>
       </c>
       <c r="C143" t="n">
         <v>9.079999923706055</v>
@@ -2013,7 +2013,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>8.994997978210449</v>
+        <v>8.964615821838379</v>
       </c>
       <c r="C144" t="n">
         <v>9.239998817443848</v>
@@ -2024,7 +2024,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>9.08903694152832</v>
+        <v>9.059940338134766</v>
       </c>
       <c r="C145" t="n">
         <v>9.199999809265137</v>
@@ -2035,7 +2035,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>9.110306739807129</v>
+        <v>9.080523490905762</v>
       </c>
       <c r="C146" t="n">
         <v>9.210000038146973</v>
@@ -2046,7 +2046,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>9.116965293884277</v>
+        <v>9.08775520324707</v>
       </c>
       <c r="C147" t="n">
         <v>9.340000152587891</v>
@@ -2057,7 +2057,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>9.200984001159668</v>
+        <v>9.173806190490723</v>
       </c>
       <c r="C148" t="n">
         <v>9.220000267028809</v>
@@ -2068,7 +2068,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>9.164059638977051</v>
+        <v>9.135030746459961</v>
       </c>
       <c r="C149" t="n">
         <v>9.25</v>
@@ -2079,7 +2079,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>9.157110214233398</v>
+        <v>9.128402709960938</v>
       </c>
       <c r="C150" t="n">
         <v>9.449999809265137</v>
@@ -2090,7 +2090,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>9.285031318664551</v>
+        <v>9.259032249450684</v>
       </c>
       <c r="C151" t="n">
         <v>9.119999885559082</v>
@@ -2101,7 +2101,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>9.136353492736816</v>
+        <v>9.105570793151855</v>
       </c>
       <c r="C152" t="n">
         <v>9.019999504089355</v>
@@ -2112,7 +2112,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>8.990272521972656</v>
+        <v>8.957167625427246</v>
       </c>
       <c r="C153" t="n">
         <v>8.909999847412109</v>
@@ -2123,7 +2123,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>8.867825508117676</v>
+        <v>8.830375671386719</v>
       </c>
       <c r="C154" t="n">
         <v>9.149998664855957</v>
@@ -2134,7 +2134,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>8.973979949951172</v>
+        <v>8.939806938171387</v>
       </c>
       <c r="C155" t="n">
         <v>9.039999961853027</v>
@@ -2145,7 +2145,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>8.966419219970703</v>
+        <v>8.931246757507324</v>
       </c>
       <c r="C156" t="n">
         <v>9.079999923706055</v>
@@ -2156,7 +2156,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>8.97663402557373</v>
+        <v>8.943642616271973</v>
       </c>
       <c r="C157" t="n">
         <v>8.949999809265137</v>
@@ -2167,7 +2167,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>8.901260375976562</v>
+        <v>8.86624813079834</v>
       </c>
       <c r="C158" t="n">
         <v>8.929999351501465</v>
@@ -2178,7 +2178,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>8.851911544799805</v>
+        <v>8.816238403320312</v>
       </c>
       <c r="C159" t="n">
         <v>8.789999961853027</v>
@@ -2189,7 +2189,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>8.748272895812988</v>
+        <v>8.709432601928711</v>
       </c>
       <c r="C160" t="n">
         <v>8.989999771118164</v>
@@ -2200,7 +2200,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>8.82863712310791</v>
+        <v>8.793442726135254</v>
       </c>
       <c r="C161" t="n">
         <v>8.859999656677246</v>
@@ -2211,7 +2211,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>8.795445442199707</v>
+        <v>8.758285522460938</v>
       </c>
       <c r="C162" t="n">
         <v>8.890000343322754</v>
@@ -2222,7 +2222,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>8.789831161499023</v>
+        <v>8.753985404968262</v>
       </c>
       <c r="C163" t="n">
         <v>8.819999694824219</v>
@@ -2233,7 +2233,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>8.747248649597168</v>
+        <v>8.710095405578613</v>
       </c>
       <c r="C164" t="n">
         <v>8.859999656677246</v>
@@ -2244,7 +2244,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>8.752385139465332</v>
+        <v>8.71601390838623</v>
       </c>
       <c r="C165" t="n">
         <v>8.789999961853027</v>
@@ -2255,7 +2255,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>8.715239524841309</v>
+        <v>8.677544593811035</v>
       </c>
       <c r="C166" t="n">
         <v>8.520000457763672</v>
@@ -2266,7 +2266,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>8.528410911560059</v>
+        <v>8.485298156738281</v>
       </c>
       <c r="C167" t="n">
         <v>8.649999618530273</v>
@@ -2277,7 +2277,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>8.523918151855469</v>
+        <v>8.482916831970215</v>
       </c>
       <c r="C168" t="n">
         <v>8.840000152587891</v>
@@ -2288,7 +2288,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>8.658426284790039</v>
+        <v>8.621755599975586</v>
       </c>
       <c r="C169" t="n">
         <v>9.060000419616699</v>
@@ -2299,7 +2299,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>8.860232353210449</v>
+        <v>8.829655647277832</v>
       </c>
       <c r="C170" t="n">
         <v>9</v>
@@ -2310,7 +2310,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>8.905679702758789</v>
+        <v>8.875277519226074</v>
       </c>
       <c r="C171" t="n">
         <v>9.300000190734863</v>
@@ -2321,7 +2321,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>9.097463607788086</v>
+        <v>9.073247909545898</v>
       </c>
       <c r="C172" t="n">
         <v>9.779999732971191</v>
@@ -2332,7 +2332,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>9.491350173950195</v>
+        <v>9.476218223571777</v>
       </c>
       <c r="C173" t="n">
         <v>9.779999732971191</v>
@@ -2343,7 +2343,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>9.659189224243164</v>
+        <v>9.645980834960938</v>
       </c>
       <c r="C174" t="n">
         <v>10.17000007629395</v>
@@ -2354,7 +2354,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>9.950599670410156</v>
+        <v>9.94444751739502</v>
       </c>
       <c r="C175" t="n">
         <v>9.829999923706055</v>
@@ -2365,7 +2365,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>9.853236198425293</v>
+        <v>9.843747138977051</v>
       </c>
       <c r="C176" t="n">
         <v>10.02000045776367</v>
@@ -2376,7 +2376,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>9.901674270629883</v>
+        <v>9.892619132995605</v>
       </c>
       <c r="C177" t="n">
         <v>10.85999965667725</v>
@@ -2387,7 +2387,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>10.48240947723389</v>
+        <v>10.47851371765137</v>
       </c>
       <c r="C178" t="n">
         <v>11.52999973297119</v>
@@ -2398,7 +2398,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>11.18960571289062</v>
+        <v>11.19497489929199</v>
       </c>
       <c r="C179" t="n">
         <v>11.52000045776367</v>
@@ -2409,7 +2409,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>11.44673728942871</v>
+        <v>11.46654033660889</v>
       </c>
       <c r="C180" t="n">
         <v>11.28999996185303</v>
@@ -2420,7 +2420,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>11.34049129486084</v>
+        <v>11.37209415435791</v>
       </c>
       <c r="C181" t="n">
         <v>11.1899995803833</v>
@@ -2431,7 +2431,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>11.20684337615967</v>
+        <v>11.23446559906006</v>
       </c>
       <c r="C182" t="n">
         <v>10.78999996185303</v>
@@ -2442,7 +2442,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>10.89591979980469</v>
+        <v>10.91408634185791</v>
       </c>
       <c r="C183" t="n">
         <v>10.72000026702881</v>
@@ -2453,7 +2453,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>10.72120571136475</v>
+        <v>10.7275972366333</v>
       </c>
       <c r="C184" t="n">
         <v>10.52999973297119</v>
@@ -2464,7 +2464,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>10.54787254333496</v>
+        <v>10.54410743713379</v>
       </c>
       <c r="C185" t="n">
         <v>10.82999992370605</v>
@@ -2475,7 +2475,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>10.67951011657715</v>
+        <v>10.67149925231934</v>
       </c>
       <c r="C186" t="n">
         <v>10.85999965667725</v>
@@ -2486,7 +2486,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>10.7763557434082</v>
+        <v>10.76987838745117</v>
       </c>
       <c r="C187" t="n">
         <v>11.19999980926514</v>
@@ -2497,7 +2497,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>11.02907276153564</v>
+        <v>11.02920532226562</v>
       </c>
       <c r="C188" t="n">
         <v>11.36999988555908</v>
@@ -2508,7 +2508,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>11.24867343902588</v>
+        <v>11.25529479980469</v>
       </c>
       <c r="C189" t="n">
         <v>11.51000118255615</v>
@@ -2519,7 +2519,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>11.4155330657959</v>
+        <v>11.42968654632568</v>
       </c>
       <c r="C190" t="n">
         <v>11.5600004196167</v>
@@ -2530,7 +2530,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>11.50359058380127</v>
+        <v>11.52297878265381</v>
       </c>
       <c r="C191" t="n">
         <v>11.93000030517578</v>
@@ -2541,7 +2541,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>11.77430534362793</v>
+        <v>11.79342269897461</v>
       </c>
       <c r="C192" t="n">
         <v>11.76000022888184</v>
@@ -2552,7 +2552,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>11.77468299865723</v>
+        <v>11.79976081848145</v>
       </c>
       <c r="C193" t="n">
         <v>11.44999980926514</v>
@@ -2563,7 +2563,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>11.53958129882812</v>
+        <v>11.5724515914917</v>
       </c>
       <c r="C194" t="n">
         <v>11.44999980926514</v>
@@ -2574,7 +2574,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>11.43781185150146</v>
+        <v>11.46300792694092</v>
       </c>
       <c r="C195" t="n">
         <v>11.53999996185303</v>
@@ -2585,7 +2585,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>11.47687339782715</v>
+        <v>11.4913854598999</v>
       </c>
       <c r="C196" t="n">
         <v>11.47999954223633</v>
@@ -2596,7 +2596,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>11.46229267120361</v>
+        <v>11.47584819793701</v>
       </c>
       <c r="C197" t="n">
         <v>11.43000030517578</v>
@@ -2607,7 +2607,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>11.41701316833496</v>
+        <v>11.43289947509766</v>
       </c>
       <c r="C198" t="n">
         <v>11.57999992370605</v>
@@ -2618,7 +2618,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>11.49846649169922</v>
+        <v>11.51270866394043</v>
       </c>
       <c r="C199" t="n">
         <v>11.69999980926514</v>
@@ -2629,7 +2629,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>11.6198205947876</v>
+        <v>11.63394069671631</v>
       </c>
       <c r="C200" t="n">
         <v>11.61999988555908</v>
@@ -2640,7 +2640,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>11.61168384552002</v>
+        <v>11.63124942779541</v>
       </c>
       <c r="C201" t="n">
         <v>12.27000045776367</v>
@@ -2651,7 +2651,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>12.02984619140625</v>
+        <v>12.04544639587402</v>
       </c>
       <c r="C202" t="n">
         <v>11.76000022888184</v>
@@ -2662,7 +2662,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>11.87807083129883</v>
+        <v>11.9068660736084</v>
       </c>
       <c r="C203" t="n">
         <v>11.69999980926514</v>
@@ -2673,7 +2673,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>11.72492599487305</v>
+        <v>11.76155757904053</v>
       </c>
       <c r="C204" t="n">
         <v>11.97999954223633</v>
@@ -2684,7 +2684,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>11.86573696136475</v>
+        <v>11.88884449005127</v>
       </c>
       <c r="C205" t="n">
         <v>12.55000019073486</v>
@@ -2695,7 +2695,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>12.32495307922363</v>
+        <v>12.3375825881958</v>
       </c>
       <c r="C206" t="n">
         <v>12.17000007629395</v>
@@ -2706,7 +2706,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>12.25608825683594</v>
+        <v>12.28822803497314</v>
       </c>
       <c r="C207" t="n">
         <v>11.93000030517578</v>
@@ -2717,7 +2717,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>12.01651287078857</v>
+        <v>12.06414318084717</v>
       </c>
       <c r="C208" t="n">
         <v>12.27000045776367</v>
@@ -2728,7 +2728,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>12.15243339538574</v>
+        <v>12.18389797210693</v>
       </c>
       <c r="C209" t="n">
         <v>12.64999961853027</v>
@@ -2739,7 +2739,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>12.49297523498535</v>
+        <v>12.51138496398926</v>
       </c>
       <c r="C210" t="n">
         <v>12.56999969482422</v>
@@ -2750,7 +2750,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>12.5708646774292</v>
+        <v>12.60232257843018</v>
       </c>
       <c r="C211" t="n">
         <v>12.90999984741211</v>
@@ -2761,7 +2761,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>12.79849243164062</v>
+        <v>12.83442401885986</v>
       </c>
       <c r="C212" t="n">
         <v>12.8100004196167</v>
@@ -2772,7 +2772,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>12.82693290710449</v>
+        <v>12.87023639678955</v>
       </c>
       <c r="C213" t="n">
         <v>13.36999988555908</v>
@@ -2783,7 +2783,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>13.192795753479</v>
+        <v>13.2268590927124</v>
       </c>
       <c r="C214" t="n">
         <v>13.19999980926514</v>
@@ -2794,7 +2794,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>13.23646259307861</v>
+        <v>13.2817497253418</v>
       </c>
       <c r="C215" t="n">
         <v>12.48999977111816</v>
@@ -2805,7 +2805,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>12.7343578338623</v>
+        <v>12.81377792358398</v>
       </c>
       <c r="C216" t="n">
         <v>12.6899995803833</v>
@@ -2816,7 +2816,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>12.65357398986816</v>
+        <v>12.71294116973877</v>
       </c>
       <c r="C217" t="n">
         <v>12.48999977111816</v>
@@ -2827,7 +2827,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>12.53973293304443</v>
+        <v>12.58102416992188</v>
       </c>
       <c r="C218" t="n">
         <v>12.82999992370605</v>
@@ -2838,7 +2838,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>12.71970081329346</v>
+        <v>12.74844837188721</v>
       </c>
       <c r="C219" t="n">
         <v>12.85000038146973</v>
@@ -2849,7 +2849,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>12.82374000549316</v>
+        <v>12.854736328125</v>
       </c>
       <c r="C220" t="n">
         <v>12.20999908447266</v>
@@ -2860,7 +2860,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>12.41605949401855</v>
+        <v>12.47384166717529</v>
       </c>
       <c r="C221" t="n">
         <v>12.14000034332275</v>
@@ -2871,7 +2871,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>12.18305969238281</v>
+        <v>12.23600959777832</v>
       </c>
       <c r="C222" t="n">
         <v>12.31999969482422</v>
@@ -2882,7 +2882,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>12.24768257141113</v>
+        <v>12.27668476104736</v>
       </c>
       <c r="C223" t="n">
         <v>12.30000019073486</v>
@@ -2893,7 +2893,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>12.28232383728027</v>
+        <v>12.30693244934082</v>
       </c>
       <c r="C224" t="n">
         <v>12.14999961853027</v>
@@ -2904,7 +2904,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>12.18669986724854</v>
+        <v>12.21985912322998</v>
       </c>
       <c r="C225" t="n">
         <v>12.46000003814697</v>
@@ -2915,7 +2915,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>12.35004901885986</v>
+        <v>12.37812614440918</v>
       </c>
       <c r="C226" t="n">
         <v>12.25</v>
@@ -2926,7 +2926,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>12.29231834411621</v>
+        <v>12.32546710968018</v>
       </c>
       <c r="C227" t="n">
         <v>12.17000007629395</v>
@@ -2937,7 +2937,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>12.1938533782959</v>
+        <v>12.23286056518555</v>
       </c>
       <c r="C228" t="n">
         <v>12.69999980926514</v>
@@ -2948,7 +2948,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>12.51517963409424</v>
+        <v>12.53975296020508</v>
       </c>
       <c r="C229" t="n">
         <v>12.92000007629395</v>
@@ -2959,7 +2959,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>12.81540584564209</v>
+        <v>12.83857250213623</v>
       </c>
       <c r="C230" t="n">
         <v>12.72999954223633</v>
@@ -2970,7 +2970,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>12.78127670288086</v>
+        <v>12.82600593566895</v>
       </c>
       <c r="C231" t="n">
         <v>12.51000022888184</v>
@@ -2981,7 +2981,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>12.58981513977051</v>
+        <v>12.64759254455566</v>
       </c>
       <c r="C232" t="n">
         <v>12.51000022888184</v>
@@ -2992,7 +2992,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>12.51462936401367</v>
+        <v>12.5633602142334</v>
       </c>
       <c r="C233" t="n">
         <v>12.38000011444092</v>
@@ -3003,7 +3003,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>12.41450977325439</v>
+        <v>12.45580387115479</v>
       </c>
       <c r="C234" t="n">
         <v>12.19999980926514</v>
@@ -3014,7 +3014,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>12.25487899780273</v>
+        <v>12.29530143737793</v>
       </c>
       <c r="C235" t="n">
         <v>12.23999977111816</v>
@@ -3025,7 +3025,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>12.22150897979736</v>
+        <v>12.25513935089111</v>
       </c>
       <c r="C236" t="n">
         <v>12.23999977111816</v>
@@ -3036,7 +3036,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>12.22299289703369</v>
+        <v>12.25203132629395</v>
       </c>
       <c r="C237" t="n">
         <v>12.22999954223633</v>
@@ -3047,7 +3047,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>12.21841144561768</v>
+        <v>12.24833488464355</v>
       </c>
       <c r="C238" t="n">
         <v>12.10999965667725</v>
@@ -3058,7 +3058,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>12.13544940948486</v>
+        <v>12.16887760162354</v>
       </c>
       <c r="C239" t="n">
         <v>11.44999980926514</v>
@@ -3069,7 +3069,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>11.65803909301758</v>
+        <v>11.70103454589844</v>
       </c>
       <c r="C240" t="n">
         <v>11.73000049591064</v>
@@ -3080,7 +3080,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>11.64171504974365</v>
+        <v>11.66763305664062</v>
       </c>
       <c r="C241" t="n">
         <v>11.9399995803833</v>
@@ -3091,7 +3091,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>11.82540035247803</v>
+        <v>11.83552074432373</v>
       </c>
       <c r="C242" t="n">
         <v>12.22000026702881</v>
@@ -3102,7 +3102,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>12.09061431884766</v>
+        <v>12.10318374633789</v>
       </c>
       <c r="C243" t="n">
         <v>12.27000045776367</v>
@@ -3113,7 +3113,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>12.22252655029297</v>
+        <v>12.24710369110107</v>
       </c>
       <c r="C244" t="n">
         <v>12.48999977111816</v>
@@ -3124,7 +3124,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>12.40243244171143</v>
+        <v>12.43347072601318</v>
       </c>
       <c r="C245" t="n">
         <v>12.43000030517578</v>
@@ -3135,7 +3135,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>12.4307165145874</v>
+        <v>12.46846580505371</v>
       </c>
       <c r="C246" t="n">
         <v>11.26000022888184</v>
@@ -3146,7 +3146,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>11.64069938659668</v>
+        <v>11.70407485961914</v>
       </c>
       <c r="C247" t="n">
         <v>11.53999996185303</v>
@@ -3157,7 +3157,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>11.47822284698486</v>
+        <v>11.51648235321045</v>
       </c>
       <c r="C248" t="n">
         <v>11.63000011444092</v>
@@ -3168,7 +3168,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>11.55105018615723</v>
+        <v>11.55974292755127</v>
       </c>
       <c r="C249" t="n">
         <v>11.40999984741211</v>
@@ -3179,7 +3179,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>11.44445037841797</v>
+        <v>11.45478820800781</v>
       </c>
       <c r="C250" t="n">
         <v>11.60999965667725</v>
@@ -3190,7 +3190,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>11.51994228363037</v>
+        <v>11.53241729736328</v>
       </c>
       <c r="C251" t="n">
         <v>11.73999977111816</v>
@@ -3201,7 +3201,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>11.65353393554688</v>
+        <v>11.666015625</v>
       </c>
       <c r="C252" t="n">
         <v>11.81999969482422</v>
@@ -3212,7 +3212,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>11.75758934020996</v>
+        <v>11.77516746520996</v>
       </c>
       <c r="C253" t="n">
         <v>11.71000003814697</v>
@@ -3223,7 +3223,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>11.71742820739746</v>
+        <v>11.74203395843506</v>
       </c>
       <c r="C254" t="n">
         <v>11.57999992370605</v>
@@ -3234,7 +3234,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>11.60336494445801</v>
+        <v>11.63050746917725</v>
       </c>
       <c r="C255" t="n">
         <v>11.32999992370605</v>
@@ -3245,7 +3245,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>11.39174365997314</v>
+        <v>11.41668796539307</v>
       </c>
       <c r="C256" t="n">
         <v>11.55000019073486</v>
@@ -3256,7 +3256,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>11.4544095993042</v>
+        <v>11.4695520401001</v>
       </c>
       <c r="C257" t="n">
         <v>11.84000015258789</v>
@@ -3267,7 +3267,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>11.69719696044922</v>
+        <v>11.70630168914795</v>
       </c>
       <c r="C258" t="n">
         <v>12.14999961853027</v>
@@ -3278,7 +3278,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>12.00433254241943</v>
+        <v>12.01784229278564</v>
       </c>
       <c r="C259" t="n">
         <v>12.14000034332275</v>
@@ -3289,7 +3289,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>12.10951805114746</v>
+        <v>12.13579273223877</v>
       </c>
       <c r="C260" t="n">
         <v>12.10999965667725</v>
@@ -3300,7 +3300,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>12.10583400726318</v>
+        <v>12.141526222229</v>
       </c>
       <c r="C261" t="n">
         <v>12.48999977111816</v>
@@ -3311,7 +3311,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>12.35174751281738</v>
+        <v>12.38106727600098</v>
       </c>
       <c r="C262" t="n">
         <v>13.32999992370605</v>
@@ -3322,7 +3322,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>13.02799415588379</v>
+        <v>13.04261207580566</v>
       </c>
       <c r="C263" t="n">
         <v>13.0600004196167</v>
@@ -3333,7 +3333,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>13.11398029327393</v>
+        <v>13.15411186218262</v>
       </c>
       <c r="C264" t="n">
         <v>12.8100004196167</v>
@@ -3344,7 +3344,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>12.91025638580322</v>
+        <v>12.97905158996582</v>
       </c>
       <c r="C265" t="n">
         <v>13.89999961853027</v>
@@ -3355,7 +3355,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>13.55944728851318</v>
+        <v>13.58756542205811</v>
       </c>
       <c r="C266" t="n">
         <v>14.88000011444092</v>
@@ -3366,7 +3366,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>14.52619743347168</v>
+        <v>14.51793098449707</v>
       </c>
       <c r="C267" t="n">
         <v>14.52999973297119</v>
@@ -3377,7 +3377,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>14.61747074127197</v>
+        <v>14.66747760772705</v>
       </c>
       <c r="C268" t="n">
         <v>14.8100004196167</v>
@@ -3388,7 +3388,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>14.74629306793213</v>
+        <v>14.81929779052734</v>
       </c>
       <c r="C269" t="n">
         <v>14.90999984741211</v>
@@ -3399,7 +3399,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>14.87389278411865</v>
+        <v>14.93720626831055</v>
       </c>
       <c r="C270" t="n">
         <v>15.98999977111816</v>
@@ -3410,7 +3410,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>15.64002895355225</v>
+        <v>15.63969707489014</v>
       </c>
       <c r="C271" t="n">
         <v>15.97000026702881</v>
@@ -3421,7 +3421,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>15.92165756225586</v>
+        <v>15.94169330596924</v>
       </c>
       <c r="C272" t="n">
         <v>15.88000011444092</v>
@@ -3432,7 +3432,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>15.88648509979248</v>
+        <v>15.95797634124756</v>
       </c>
       <c r="C273" t="n">
         <v>15.63000011444092</v>
@@ -3443,7 +3443,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>15.68726253509521</v>
+        <v>15.78522682189941</v>
       </c>
       <c r="C274" t="n">
         <v>15.47999954223633</v>
@@ -3454,7 +3454,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>15.51576042175293</v>
+        <v>15.6108570098877</v>
       </c>
       <c r="C275" t="n">
         <v>15.10999965667725</v>
@@ -3465,7 +3465,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>15.21850490570068</v>
+        <v>15.32049942016602</v>
       </c>
       <c r="C276" t="n">
         <v>15.27999973297119</v>
@@ -3476,7 +3476,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>15.22978591918945</v>
+        <v>15.30162143707275</v>
       </c>
       <c r="C277" t="n">
         <v>14.86999988555908</v>
@@ -3487,7 +3487,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>14.9874849319458</v>
+        <v>15.07163047790527</v>
       </c>
       <c r="C278" t="n">
         <v>15</v>
@@ -3498,7 +3498,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>14.97057342529297</v>
+        <v>15.04319953918457</v>
       </c>
       <c r="C279" t="n">
         <v>15.02000045776367</v>
@@ -3509,7 +3509,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>15.00585460662842</v>
+        <v>15.06546211242676</v>
       </c>
       <c r="C280" t="n">
         <v>14.77000045776367</v>
@@ -3520,7 +3520,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>14.84799194335938</v>
+        <v>14.9255895614624</v>
       </c>
       <c r="C281" t="n">
         <v>14.52000045776367</v>
@@ -3531,7 +3531,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>14.61027050018311</v>
+        <v>14.70206069946289</v>
       </c>
       <c r="C282" t="n">
         <v>14.77999973297119</v>
@@ -3542,7 +3542,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>14.70815944671631</v>
+        <v>14.77028656005859</v>
       </c>
       <c r="C283" t="n">
         <v>14.90999984741211</v>
@@ -3553,7 +3553,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>14.8605489730835</v>
+        <v>14.90638542175293</v>
       </c>
       <c r="C284" t="n">
         <v>15.42000007629395</v>
@@ -3564,7 +3564,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>15.25215625762939</v>
+        <v>15.27850151062012</v>
       </c>
       <c r="C285" t="n">
         <v>15.26000022888184</v>
@@ -3575,7 +3575,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>15.28759002685547</v>
+        <v>15.34250640869141</v>
       </c>
       <c r="C286" t="n">
         <v>15.1899995803833</v>
@@ -3586,7 +3586,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>15.21261501312256</v>
+        <v>15.29280757904053</v>
       </c>
       <c r="C287" t="n">
         <v>14.95999908447266</v>
@@ -3597,7 +3597,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>15.03037071228027</v>
+        <v>15.1218729019165</v>
       </c>
       <c r="C288" t="n">
         <v>15.01000022888184</v>
@@ -3608,7 +3608,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>14.99923419952393</v>
+        <v>15.07567882537842</v>
       </c>
       <c r="C289" t="n">
         <v>14.85999965667725</v>
@@ -3619,7 +3619,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>14.9041166305542</v>
+        <v>14.97842788696289</v>
       </c>
       <c r="C290" t="n">
         <v>14.90999984741211</v>
@@ -3630,7 +3630,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>14.89927768707275</v>
+        <v>14.96731758117676</v>
       </c>
       <c r="C291" t="n">
         <v>14.93000030517578</v>
@@ -3641,7 +3641,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>14.92142868041992</v>
+        <v>14.98419570922852</v>
       </c>
       <c r="C292" t="n">
         <v>14.5</v>
@@ -3652,7 +3652,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>14.63766193389893</v>
+        <v>14.727858543396</v>
       </c>
       <c r="C293" t="n">
         <v>14.22999954223633</v>
@@ -3663,7 +3663,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>14.33602619171143</v>
+        <v>14.43541431427002</v>
       </c>
       <c r="C294" t="n">
         <v>14.0600004196167</v>
@@ -3674,7 +3674,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>14.12918090820312</v>
+        <v>14.21412467956543</v>
       </c>
       <c r="C295" t="n">
         <v>14.47999858856201</v>
@@ -3685,7 +3685,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>14.3567943572998</v>
+        <v>14.40095043182373</v>
       </c>
       <c r="C296" t="n">
         <v>14.60999870300293</v>
@@ -3696,7 +3696,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>14.558030128479</v>
+        <v>14.59451103210449</v>
       </c>
       <c r="C297" t="n">
         <v>14.42000007629395</v>
@@ -3707,7 +3707,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>14.48312664031982</v>
+        <v>14.54933261871338</v>
       </c>
       <c r="C298" t="n">
         <v>14.25</v>
@@ -3718,7 +3718,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>14.31874465942383</v>
+        <v>14.40228366851807</v>
       </c>
       <c r="C299" t="n">
         <v>14.01000022888184</v>
@@ -3729,7 +3729,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>14.10010814666748</v>
+        <v>14.18602561950684</v>
       </c>
       <c r="C300" t="n">
         <v>13.60999965667725</v>
@@ -3740,7 +3740,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>13.75466251373291</v>
+        <v>13.84468460083008</v>
       </c>
       <c r="C301" t="n">
         <v>13.27999973297119</v>
@@ -3751,7 +3751,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>13.40774440765381</v>
+        <v>13.49235248565674</v>
       </c>
       <c r="C302" t="n">
         <v>13.90999984741211</v>
@@ -3762,7 +3762,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>13.72226524353027</v>
+        <v>13.75810432434082</v>
       </c>
       <c r="C303" t="n">
         <v>14.1899995803833</v>
@@ -3773,7 +3773,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>14.07958602905273</v>
+        <v>14.09978771209717</v>
       </c>
       <c r="C304" t="n">
         <v>13.90999984741211</v>
@@ -3784,7 +3784,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>13.99906444549561</v>
+        <v>14.05814743041992</v>
       </c>
       <c r="C305" t="n">
         <v>13.81999969482422</v>
@@ -3795,7 +3795,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>13.87003993988037</v>
+        <v>13.94751071929932</v>
       </c>
       <c r="C306" t="n">
         <v>14.02999973297119</v>
@@ -3806,7 +3806,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>13.97370529174805</v>
+        <v>14.03206443786621</v>
       </c>
       <c r="C307" t="n">
         <v>13.78999996185303</v>
@@ -3817,7 +3817,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>13.86722278594971</v>
+        <v>13.93139171600342</v>
       </c>
       <c r="C308" t="n">
         <v>13.85999965667725</v>
@@ -3828,7 +3828,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>13.85577201843262</v>
+        <v>13.91903972625732</v>
       </c>
       <c r="C309" t="n">
         <v>14.39000034332275</v>
@@ -3839,7 +3839,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>14.22424125671387</v>
+        <v>14.25872611999512</v>
       </c>
       <c r="C310" t="n">
         <v>13.94999980926514</v>
@@ -3850,7 +3850,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>14.0796422958374</v>
+        <v>14.14336681365967</v>
       </c>
       <c r="C311" t="n">
         <v>13.90999984741211</v>
@@ -3861,7 +3861,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>13.95022392272949</v>
+        <v>14.02921295166016</v>
       </c>
       <c r="C312" t="n">
         <v>14.02000045776367</v>
@@ -3872,7 +3872,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>13.99388408660889</v>
+        <v>14.05559539794922</v>
       </c>
       <c r="C313" t="n">
         <v>13.31999969482422</v>
@@ -3883,7 +3883,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>13.54889297485352</v>
+        <v>13.63573741912842</v>
       </c>
       <c r="C314" t="n">
         <v>13.71000003814697</v>
@@ -3894,7 +3894,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>13.6181173324585</v>
+        <v>13.67932033538818</v>
       </c>
       <c r="C315" t="n">
         <v>13.80000019073486</v>
@@ -3905,7 +3905,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>13.75996685028076</v>
+        <v>13.80007362365723</v>
       </c>
       <c r="C316" t="n">
         <v>13.75</v>
@@ -3916,7 +3916,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>13.77056217193604</v>
+        <v>13.82186889648438</v>
       </c>
       <c r="C317" t="n">
         <v>13.81999969482422</v>
@@ -3927,7 +3927,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>13.80818462371826</v>
+        <v>13.86486911773682</v>
       </c>
       <c r="C318" t="n">
         <v>13.93000030517578</v>
@@ -3938,7 +3938,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>13.90011501312256</v>
+        <v>13.95333671569824</v>
       </c>
       <c r="C319" t="n">
         <v>13.89999961853027</v>
@@ -3949,7 +3949,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>13.91432571411133</v>
+        <v>13.97218799591064</v>
       </c>
       <c r="C320" t="n">
         <v>13.59000015258789</v>
@@ -3960,7 +3960,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>13.70026588439941</v>
+        <v>13.77535915374756</v>
       </c>
       <c r="C321" t="n">
         <v>13.46000003814697</v>
@@ -3971,7 +3971,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>13.521897315979</v>
+        <v>13.59638690948486</v>
       </c>
       <c r="C322" t="n">
         <v>12.98999977111816</v>
@@ -3982,7 +3982,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>13.15227031707764</v>
+        <v>13.22975063323975</v>
       </c>
       <c r="C323" t="n">
         <v>13</v>
@@ -3993,7 +3993,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>13.01737117767334</v>
+        <v>13.07748985290527</v>
       </c>
       <c r="C324" t="n">
         <v>12.67000007629395</v>
@@ -4004,7 +4004,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>12.77501773834229</v>
+        <v>12.82854080200195</v>
       </c>
       <c r="C325" t="n">
         <v>12.56999969482422</v>
@@ -4015,7 +4015,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>12.61197376251221</v>
+        <v>12.65991973876953</v>
       </c>
       <c r="C326" t="n">
         <v>12.72999954223633</v>
@@ -4026,7 +4026,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>12.67397689819336</v>
+        <v>12.70796871185303</v>
       </c>
       <c r="C327" t="n">
         <v>13.07999992370605</v>
@@ -4037,7 +4037,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>12.95186138153076</v>
+        <v>12.97568893432617</v>
       </c>
       <c r="C328" t="n">
         <v>13.17000007629395</v>
@@ -4048,7 +4048,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>13.12470436096191</v>
+        <v>13.15736293792725</v>
       </c>
       <c r="C329" t="n">
         <v>12.89999961853027</v>
@@ -4059,7 +4059,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>12.9871711730957</v>
+        <v>13.04293537139893</v>
       </c>
       <c r="C330" t="n">
         <v>13.3100004196167</v>
@@ -4070,7 +4070,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>13.19010734558105</v>
+        <v>13.23521900177002</v>
       </c>
       <c r="C331" t="n">
         <v>13.05000019073486</v>
@@ -4081,7 +4081,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>13.11995220184326</v>
+        <v>13.17037296295166</v>
       </c>
       <c r="C332" t="n">
         <v>13.02999973297119</v>
@@ -4092,7 +4092,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>13.05101203918457</v>
+        <v>13.10727787017822</v>
       </c>
       <c r="C333" t="n">
         <v>13.10999965667725</v>
@@ -4103,7 +4103,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>13.08661460876465</v>
+        <v>13.13486576080322</v>
       </c>
       <c r="C334" t="n">
         <v>13.01000022888184</v>
@@ -4114,7 +4114,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>13.04077053070068</v>
+        <v>13.08971977233887</v>
       </c>
       <c r="C335" t="n">
         <v>12.89000034332275</v>
@@ -4125,7 +4125,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>12.93478679656982</v>
+        <v>12.98786449432373</v>
       </c>
       <c r="C336" t="n">
         <v>12.94999980926514</v>
@@ -4136,7 +4136,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>12.93526172637939</v>
+        <v>12.98238182067871</v>
       </c>
       <c r="C337" t="n">
         <v>13.02999973297119</v>
@@ -4147,7 +4147,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>13.00059223175049</v>
+        <v>13.04169654846191</v>
       </c>
       <c r="C338" t="n">
         <v>12.76000022888184</v>
@@ -4158,7 +4158,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>12.84478664398193</v>
+        <v>12.89610481262207</v>
       </c>
       <c r="C339" t="n">
         <v>12.68000030517578</v>
@@ -4169,7 +4169,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>12.71625518798828</v>
+        <v>12.76899337768555</v>
       </c>
       <c r="C340" t="n">
         <v>12.98999977111816</v>
@@ -4180,7 +4180,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>12.88786888122559</v>
+        <v>12.92345523834229</v>
       </c>
       <c r="C341" t="n">
         <v>12.85999965667725</v>
@@ -4191,7 +4191,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>12.8866662979126</v>
+        <v>12.92583084106445</v>
       </c>
       <c r="C342" t="n">
         <v>13.22000026702881</v>
@@ -4202,7 +4202,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>13.10818767547607</v>
+        <v>13.14471435546875</v>
       </c>
       <c r="C343" t="n">
         <v>13.39999961853027</v>
@@ -4213,7 +4213,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>13.32901763916016</v>
+        <v>13.36491966247559</v>
       </c>
       <c r="C344" t="n">
         <v>13.55000019073486</v>
@@ -4224,7 +4224,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>13.50056743621826</v>
+        <v>13.54405307769775</v>
       </c>
       <c r="C345" t="n">
         <v>12.81999969482422</v>
@@ -4235,7 +4235,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>13.05831813812256</v>
+        <v>13.13767051696777</v>
       </c>
       <c r="C346" t="n">
         <v>12.77000045776367</v>
@@ -4246,7 +4246,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>12.81972408294678</v>
+        <v>12.89318180084229</v>
       </c>
       <c r="C347" t="n">
         <v>13.22999954223633</v>
@@ -4257,7 +4257,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>13.07891178131104</v>
+        <v>13.11260986328125</v>
       </c>
       <c r="C348" t="n">
         <v>13.71000003814697</v>
@@ -4268,7 +4268,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>13.5352258682251</v>
+        <v>13.55153369903564</v>
       </c>
       <c r="C349" t="n">
         <v>13.77999973297119</v>
@@ -4279,7 +4279,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>13.74592685699463</v>
+        <v>13.7822904586792</v>
       </c>
       <c r="C350" t="n">
         <v>14.15999984741211</v>
@@ -4290,7 +4290,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>14.04610729217529</v>
+        <v>14.08989143371582</v>
       </c>
       <c r="C351" t="n">
         <v>14.3100004196167</v>
@@ -4301,7 +4301,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>14.25823307037354</v>
+        <v>14.30683612823486</v>
       </c>
       <c r="C352" t="n">
         <v>14.30000019073486</v>
@@ -4312,7 +4312,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>14.30902671813965</v>
+        <v>14.37174987792969</v>
       </c>
       <c r="C353" t="n">
         <v>14.15999984741211</v>
@@ -4323,7 +4323,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>14.21598529815674</v>
+        <v>14.2920389175415</v>
       </c>
       <c r="C354" t="n">
         <v>14.15999984741211</v>
@@ -4334,7 +4334,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>14.1748218536377</v>
+        <v>14.24693870544434</v>
       </c>
       <c r="C355" t="n">
         <v>14.34999942779541</v>
@@ -4345,7 +4345,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>14.29749202728271</v>
+        <v>14.3524055480957</v>
       </c>
       <c r="C356" t="n">
         <v>14.28999996185303</v>
@@ -4356,7 +4356,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>14.31053829193115</v>
+        <v>14.3691234588623</v>
       </c>
       <c r="C357" t="n">
         <v>14.11999988555908</v>
@@ -4367,7 +4367,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>14.18586444854736</v>
+        <v>14.25943851470947</v>
       </c>
       <c r="C358" t="n">
         <v>14.89000034332275</v>
@@ -4378,7 +4378,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>14.65647792816162</v>
+        <v>14.68800830841064</v>
       </c>
       <c r="C359" t="n">
         <v>15.11999988555908</v>
@@ -4389,7 +4389,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>15.02145195007324</v>
+        <v>15.04477405548096</v>
       </c>
       <c r="C360" t="n">
         <v>15.08999919891357</v>
@@ -4400,7 +4400,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>15.09388065338135</v>
+        <v>15.15085506439209</v>
       </c>
       <c r="C361" t="n">
         <v>15.64000034332275</v>
@@ -4411,7 +4411,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>15.46231079101562</v>
+        <v>15.50143909454346</v>
       </c>
       <c r="C362" t="n">
         <v>15.51000022888184</v>
@@ -4422,7 +4422,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>15.5209379196167</v>
+        <v>15.57637596130371</v>
       </c>
       <c r="C363" t="n">
         <v>15.44999980926514</v>
@@ -4433,7 +4433,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>15.46213817596436</v>
+        <v>15.53994750976562</v>
       </c>
       <c r="C364" t="n">
         <v>15.69999980926514</v>
@@ -4444,7 +4444,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>15.60792350769043</v>
+        <v>15.66559600830078</v>
       </c>
       <c r="C365" t="n">
         <v>15.5600004196167</v>
@@ -4455,7 +4455,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>15.57867431640625</v>
+        <v>15.64407539367676</v>
       </c>
       <c r="C366" t="n">
         <v>15.42000007629395</v>
@@ -4466,7 +4466,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>15.45414257049561</v>
+        <v>15.53636932373047</v>
       </c>
       <c r="C367" t="n">
         <v>16.04000091552734</v>
@@ -4477,7 +4477,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>15.82890796661377</v>
+        <v>15.8601188659668</v>
       </c>
       <c r="C368" t="n">
         <v>16.54999923706055</v>
@@ -4488,7 +4488,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>16.33282470703125</v>
+        <v>16.3266487121582</v>
       </c>
       <c r="C369" t="n">
         <v>16.28000068664551</v>
@@ -4499,7 +4499,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>16.30276107788086</v>
+        <v>16.35323524475098</v>
       </c>
       <c r="C370" t="n">
         <v>16</v>
@@ -4510,7 +4510,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>16.05337333679199</v>
+        <v>16.15412521362305</v>
       </c>
       <c r="C371" t="n">
         <v>15.9399995803833</v>
@@ -4521,7 +4521,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>15.92975807189941</v>
+        <v>16.02091026306152</v>
       </c>
       <c r="C372" t="n">
         <v>15.51000022888184</v>
@@ -4532,7 +4532,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>15.61823749542236</v>
+        <v>15.72106552124023</v>
       </c>
       <c r="C373" t="n">
         <v>16.86000061035156</v>
@@ -4543,7 +4543,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>16.41049003601074</v>
+        <v>16.39155387878418</v>
       </c>
       <c r="C374" t="n">
         <v>17.08000183105469</v>
@@ -4554,7 +4554,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>16.89912986755371</v>
+        <v>16.86355972290039</v>
       </c>
       <c r="C375" t="n">
         <v>17.95000076293945</v>
@@ -4565,7 +4565,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>17.56268310546875</v>
+        <v>17.50869369506836</v>
       </c>
       <c r="C376" t="n">
         <v>18.01000022888184</v>
@@ -4576,7 +4576,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>17.81081771850586</v>
+        <v>17.79070472717285</v>
       </c>
       <c r="C377" t="n">
         <v>18.6299991607666</v>
@@ -4587,7 +4587,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>18.23953056335449</v>
+        <v>18.19400405883789</v>
       </c>
       <c r="C378" t="n">
         <v>19.42000007629395</v>
@@ -4598,7 +4598,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>18.88606071472168</v>
+        <v>18.76670074462891</v>
       </c>
       <c r="C379" t="n">
         <v>19.29000091552734</v>
@@ -4609,7 +4609,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>18.98521041870117</v>
+        <v>18.92170906066895</v>
       </c>
       <c r="C380" t="n">
         <v>20.14999961853027</v>
@@ -4620,7 +4620,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>19.50064659118652</v>
+        <v>19.37031555175781</v>
       </c>
       <c r="C381" t="n">
         <v>20.1200008392334</v>
@@ -4631,7 +4631,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>19.65847587585449</v>
+        <v>19.54511833190918</v>
       </c>
       <c r="C382" t="n">
         <v>19.36000061035156</v>
@@ -4642,7 +4642,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>19.17704582214355</v>
+        <v>19.20809173583984</v>
       </c>
       <c r="C383" t="n">
         <v>19.54999923706055</v>
@@ -4653,7 +4653,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>19.12936019897461</v>
+        <v>19.12582397460938</v>
       </c>
       <c r="C384" t="n">
         <v>19.5</v>
@@ -4664,7 +4664,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>19.13681793212891</v>
+        <v>19.09484100341797</v>
       </c>
       <c r="C385" t="n">
         <v>19.86000061035156</v>
@@ -4675,7 +4675,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>19.36030960083008</v>
+        <v>19.26835060119629</v>
       </c>
       <c r="C386" t="n">
         <v>19.79000091552734</v>
@@ -4686,7 +4686,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>19.39060974121094</v>
+        <v>19.31757164001465</v>
       </c>
       <c r="C387" t="n">
         <v>19.95999908447266</v>
@@ -4697,7 +4697,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>19.48393821716309</v>
+        <v>19.40762519836426</v>
       </c>
       <c r="C388" t="n">
         <v>19.55999946594238</v>
@@ -4708,7 +4708,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>19.26492500305176</v>
+        <v>19.24720573425293</v>
       </c>
       <c r="C389" t="n">
         <v>19.38999938964844</v>
@@ -4719,7 +4719,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>19.0730094909668</v>
+        <v>19.07765197753906</v>
       </c>
       <c r="C390" t="n">
         <v>20.47999954223633</v>
@@ -4730,7 +4730,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>19.7199764251709</v>
+        <v>19.55215072631836</v>
       </c>
       <c r="C391" t="n">
         <v>20.20000076293945</v>
@@ -4741,7 +4741,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>19.77657699584961</v>
+        <v>19.65231704711914</v>
       </c>
       <c r="C392" t="n">
         <v>20.25</v>
@@ -4752,7 +4752,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>19.75310516357422</v>
+        <v>19.6777172088623</v>
       </c>
       <c r="C393" t="n">
         <v>19.75</v>
@@ -4763,7 +4763,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>19.44136047363281</v>
+        <v>19.4362735748291</v>
       </c>
       <c r="C394" t="n">
         <v>19.67000007629395</v>
@@ -4800,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3414990680843836</v>
+        <v>0.3536491984720854</v>
       </c>
     </row>
   </sheetData>
